--- a/data/macro/USA/USCPI YoY.xlsx
+++ b/data/macro/USA/USCPI YoY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\macro\USA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORE16\PycharmProjects\AlternativeData\data\macro\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B25B8D8-8E82-49B7-8676-39AD59218BFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AC2FE6-0C86-45BD-A798-0701694FA60E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="780" windowWidth="30375" windowHeight="20445" xr2:uid="{048C2A35-BEFE-40E9-9968-E0CB19CCA872}"/>
   </bookViews>
@@ -518,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCC3F54-AD1C-4CCF-B8C0-3F784AA58BEE}">
-  <dimension ref="A1:G674"/>
+  <dimension ref="A1:G673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H668" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H662" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G675" sqref="G675"/>
+      <selection pane="bottomRight" activeCell="E679" sqref="E679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -14443,15 +14443,33 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="8">
-        <v>45931</v>
+        <v>45962</v>
+      </c>
+      <c r="B672" s="4">
+        <v>46009</v>
+      </c>
+      <c r="C672" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D672" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E672" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F672" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G672" s="2">
+        <v>0.03</v>
       </c>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="8">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="B673" s="4">
-        <v>46009</v>
+        <v>46035</v>
       </c>
       <c r="C673" s="6">
         <v>0.35416666666666669</v>
@@ -14463,26 +14481,9 @@
         <v>2.7E-2</v>
       </c>
       <c r="F673" s="2">
-        <v>3.1E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="G673" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A674" s="8">
-        <v>45992</v>
-      </c>
-      <c r="B674" s="4">
-        <v>46035</v>
-      </c>
-      <c r="C674" s="6">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D674" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G674" s="2">
         <v>2.7E-2</v>
       </c>
     </row>

--- a/data/macro/USA/USCPI YoY.xlsx
+++ b/data/macro/USA/USCPI YoY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\macro\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C03ABF-4F91-49E7-AB2E-1EA230EB9D92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7A0FFE-3F89-454E-B598-1CDF90F3E91D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="780" windowWidth="30375" windowHeight="20445" xr2:uid="{048C2A35-BEFE-40E9-9968-E0CB19CCA872}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="9">
   <si>
     <t>Release Date</t>
   </si>
@@ -59,10 +59,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="180" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -147,7 +148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -186,6 +187,15 @@
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -502,21 +512,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCC3F54-AD1C-4CCF-B8C0-3F784AA58BEE}">
-  <dimension ref="A1:G674"/>
+  <dimension ref="A1:G675"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H656" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H647" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K680" sqref="K680"/>
+      <selection pane="bottomRight" activeCell="I661" sqref="I661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11.42578125" style="9" customWidth="1"/>
     <col min="8" max="16384" width="8.85546875" style="5"/>
   </cols>
@@ -528,13 +538,13 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -551,7 +561,7 @@
       <c r="B2" s="7">
         <v>25587</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -568,7 +578,7 @@
       <c r="B3" s="7">
         <v>25618</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -588,7 +598,7 @@
       <c r="B4" s="7">
         <v>25647</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -608,7 +618,7 @@
       <c r="B5" s="7">
         <v>25680</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -628,7 +638,7 @@
       <c r="B6" s="7">
         <v>25708</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -648,7 +658,7 @@
       <c r="B7" s="7">
         <v>25737</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -668,7 +678,7 @@
       <c r="B8" s="7">
         <v>25770</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -688,7 +698,7 @@
       <c r="B9" s="7">
         <v>25801</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -708,7 +718,7 @@
       <c r="B10" s="7">
         <v>25834</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -728,7 +738,7 @@
       <c r="B11" s="7">
         <v>25862</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -748,7 +758,7 @@
       <c r="B12" s="7">
         <v>25896</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -768,7 +778,7 @@
       <c r="B13" s="7">
         <v>25926</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -788,7 +798,7 @@
       <c r="B14" s="7">
         <v>25962</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -808,7 +818,7 @@
       <c r="B15" s="7">
         <v>25983</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -828,7 +838,7 @@
       <c r="B16" s="7">
         <v>26011</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -848,7 +858,7 @@
       <c r="B17" s="7">
         <v>26044</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -868,7 +878,7 @@
       <c r="B18" s="7">
         <v>26074</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -888,7 +898,7 @@
       <c r="B19" s="7">
         <v>26105</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -908,7 +918,7 @@
       <c r="B20" s="7">
         <v>26137</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -928,7 +938,7 @@
       <c r="B21" s="7">
         <v>26165</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -948,7 +958,7 @@
       <c r="B22" s="7">
         <v>26198</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -968,7 +978,7 @@
       <c r="B23" s="7">
         <v>26228</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -988,7 +998,7 @@
       <c r="B24" s="7">
         <v>26256</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -1008,7 +1018,7 @@
       <c r="B25" s="7">
         <v>26289</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -1028,7 +1038,7 @@
       <c r="B26" s="7">
         <v>26319</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -1048,7 +1058,7 @@
       <c r="B27" s="7">
         <v>26352</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -1068,7 +1078,7 @@
       <c r="B28" s="7">
         <v>26381</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -1088,7 +1098,7 @@
       <c r="B29" s="7">
         <v>26410</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -1108,7 +1118,7 @@
       <c r="B30" s="7">
         <v>26438</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -1128,7 +1138,7 @@
       <c r="B31" s="7">
         <v>26471</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D31" s="8" t="s">
@@ -1148,7 +1158,7 @@
       <c r="B32" s="7">
         <v>26501</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -1168,7 +1178,7 @@
       <c r="B33" s="7">
         <v>26533</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -1188,7 +1198,7 @@
       <c r="B34" s="7">
         <v>26564</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -1208,7 +1218,7 @@
       <c r="B35" s="7">
         <v>26592</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -1228,7 +1238,7 @@
       <c r="B36" s="7">
         <v>26624</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D36" s="8" t="s">
@@ -1248,7 +1258,7 @@
       <c r="B37" s="7">
         <v>26655</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -1268,7 +1278,7 @@
       <c r="B38" s="7">
         <v>26687</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -1288,7 +1298,7 @@
       <c r="B39" s="7">
         <v>26717</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -1308,7 +1318,7 @@
       <c r="B40" s="7">
         <v>26744</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D40" s="8" t="s">
@@ -1328,7 +1338,7 @@
       <c r="B41" s="7">
         <v>26774</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D41" s="8" t="s">
@@ -1348,7 +1358,7 @@
       <c r="B42" s="7">
         <v>26806</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -1368,7 +1378,7 @@
       <c r="B43" s="7">
         <v>26836</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -1388,7 +1398,7 @@
       <c r="B44" s="7">
         <v>26865</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -1408,7 +1418,7 @@
       <c r="B45" s="7">
         <v>26897</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -1428,7 +1438,7 @@
       <c r="B46" s="7">
         <v>26928</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -1448,7 +1458,7 @@
       <c r="B47" s="7">
         <v>26956</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -1468,7 +1478,7 @@
       <c r="B48" s="7">
         <v>26989</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D48" s="8" t="s">
@@ -1488,7 +1498,7 @@
       <c r="B49" s="7">
         <v>27019</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D49" s="8" t="s">
@@ -1508,7 +1518,7 @@
       <c r="B50" s="7">
         <v>27051</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D50" s="8" t="s">
@@ -1528,7 +1538,7 @@
       <c r="B51" s="7">
         <v>27082</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D51" s="8" t="s">
@@ -1548,7 +1558,7 @@
       <c r="B52" s="7">
         <v>27109</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -1568,7 +1578,7 @@
       <c r="B53" s="7">
         <v>27138</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -1588,7 +1598,7 @@
       <c r="B54" s="7">
         <v>27170</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D54" s="8" t="s">
@@ -1608,7 +1618,7 @@
       <c r="B55" s="7">
         <v>27201</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D55" s="8" t="s">
@@ -1628,7 +1638,7 @@
       <c r="B56" s="7">
         <v>27229</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -1648,7 +1658,7 @@
       <c r="B57" s="7">
         <v>27262</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -1668,7 +1678,7 @@
       <c r="B58" s="7">
         <v>27292</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D58" s="8" t="s">
@@ -1688,7 +1698,7 @@
       <c r="B59" s="7">
         <v>27324</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D59" s="8" t="s">
@@ -1708,7 +1718,7 @@
       <c r="B60" s="7">
         <v>27354</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D60" s="8" t="s">
@@ -1728,7 +1738,7 @@
       <c r="B61" s="7">
         <v>27383</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D61" s="8" t="s">
@@ -1748,7 +1758,7 @@
       <c r="B62" s="7">
         <v>27415</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D62" s="8" t="s">
@@ -1768,7 +1778,7 @@
       <c r="B63" s="7">
         <v>27446</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D63" s="8" t="s">
@@ -1788,7 +1798,7 @@
       <c r="B64" s="7">
         <v>27473</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D64" s="8" t="s">
@@ -1808,7 +1818,7 @@
       <c r="B65" s="7">
         <v>27506</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D65" s="8" t="s">
@@ -1828,7 +1838,7 @@
       <c r="B66" s="7">
         <v>27535</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D66" s="8" t="s">
@@ -1848,7 +1858,7 @@
       <c r="B67" s="7">
         <v>27565</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D67" s="8" t="s">
@@ -1868,7 +1878,7 @@
       <c r="B68" s="7">
         <v>27597</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D68" s="8" t="s">
@@ -1888,7 +1898,7 @@
       <c r="B69" s="7">
         <v>27627</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D69" s="8" t="s">
@@ -1908,7 +1918,7 @@
       <c r="B70" s="7">
         <v>27656</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D70" s="8" t="s">
@@ -1928,7 +1938,7 @@
       <c r="B71" s="7">
         <v>27689</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D71" s="8" t="s">
@@ -1948,7 +1958,7 @@
       <c r="B72" s="7">
         <v>27718</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D72" s="8" t="s">
@@ -1968,7 +1978,7 @@
       <c r="B73" s="7">
         <v>27747</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D73" s="8" t="s">
@@ -1988,7 +1998,7 @@
       <c r="B74" s="7">
         <v>27780</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D74" s="8" t="s">
@@ -2008,7 +2018,7 @@
       <c r="B75" s="7">
         <v>27810</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D75" s="8" t="s">
@@ -2028,7 +2038,7 @@
       <c r="B76" s="7">
         <v>27838</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D76" s="8" t="s">
@@ -2048,7 +2058,7 @@
       <c r="B77" s="7">
         <v>27871</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D77" s="8" t="s">
@@ -2068,7 +2078,7 @@
       <c r="B78" s="7">
         <v>27901</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D78" s="8" t="s">
@@ -2088,7 +2098,7 @@
       <c r="B79" s="7">
         <v>27933</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D79" s="8" t="s">
@@ -2108,7 +2118,7 @@
       <c r="B80" s="7">
         <v>27962</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D80" s="8" t="s">
@@ -2128,7 +2138,7 @@
       <c r="B81" s="7">
         <v>27992</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D81" s="8" t="s">
@@ -2148,7 +2158,7 @@
       <c r="B82" s="7">
         <v>28024</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D82" s="8" t="s">
@@ -2168,7 +2178,7 @@
       <c r="B83" s="7">
         <v>28054</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D83" s="8" t="s">
@@ -2188,7 +2198,7 @@
       <c r="B84" s="7">
         <v>28083</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D84" s="8" t="s">
@@ -2208,7 +2218,7 @@
       <c r="B85" s="7">
         <v>28115</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D85" s="8" t="s">
@@ -2228,7 +2238,7 @@
       <c r="B86" s="7">
         <v>28144</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D86" s="8" t="s">
@@ -2248,7 +2258,7 @@
       <c r="B87" s="7">
         <v>28174</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -2268,7 +2278,7 @@
       <c r="B88" s="7">
         <v>28202</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D88" s="8" t="s">
@@ -2288,7 +2298,7 @@
       <c r="B89" s="7">
         <v>28236</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D89" s="8" t="s">
@@ -2308,7 +2318,7 @@
       <c r="B90" s="7">
         <v>28265</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D90" s="8" t="s">
@@ -2328,7 +2338,7 @@
       <c r="B91" s="7">
         <v>28297</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D91" s="8" t="s">
@@ -2348,7 +2358,7 @@
       <c r="B92" s="7">
         <v>28327</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D92" s="8" t="s">
@@ -2368,7 +2378,7 @@
       <c r="B93" s="7">
         <v>28356</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D93" s="8" t="s">
@@ -2388,7 +2398,7 @@
       <c r="B94" s="7">
         <v>28389</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D94" s="8" t="s">
@@ -2408,7 +2418,7 @@
       <c r="B95" s="7">
         <v>28419</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D95" s="8" t="s">
@@ -2428,7 +2438,7 @@
       <c r="B96" s="7">
         <v>28451</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D96" s="8" t="s">
@@ -2448,7 +2458,7 @@
       <c r="B97" s="7">
         <v>28480</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D97" s="8" t="s">
@@ -2468,7 +2478,7 @@
       <c r="B98" s="7">
         <v>28510</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D98" s="8" t="s">
@@ -2488,7 +2498,7 @@
       <c r="B99" s="7">
         <v>28548</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D99" s="8" t="s">
@@ -2508,7 +2518,7 @@
       <c r="B100" s="7">
         <v>28577</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D100" s="8" t="s">
@@ -2528,7 +2538,7 @@
       <c r="B101" s="7">
         <v>28608</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D101" s="8" t="s">
@@ -2548,7 +2558,7 @@
       <c r="B102" s="7">
         <v>28641</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D102" s="8" t="s">
@@ -2568,7 +2578,7 @@
       <c r="B103" s="7">
         <v>28671</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D103" s="8" t="s">
@@ -2588,7 +2598,7 @@
       <c r="B104" s="7">
         <v>28699</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D104" s="8" t="s">
@@ -2608,7 +2618,7 @@
       <c r="B105" s="7">
         <v>28731</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D105" s="8" t="s">
@@ -2628,7 +2638,7 @@
       <c r="B106" s="7">
         <v>28759</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D106" s="8" t="s">
@@ -2648,7 +2658,7 @@
       <c r="B107" s="7">
         <v>28789</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D107" s="8" t="s">
@@ -2668,7 +2678,7 @@
       <c r="B108" s="7">
         <v>28822</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D108" s="8" t="s">
@@ -2688,7 +2698,7 @@
       <c r="B109" s="7">
         <v>28846</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D109" s="8" t="s">
@@ -2708,7 +2718,7 @@
       <c r="B110" s="7">
         <v>28879</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D110" s="8" t="s">
@@ -2728,7 +2738,7 @@
       <c r="B111" s="7">
         <v>28909</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D111" s="8" t="s">
@@ -2748,7 +2758,7 @@
       <c r="B112" s="7">
         <v>28937</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D112" s="8" t="s">
@@ -2768,7 +2778,7 @@
       <c r="B113" s="7">
         <v>28971</v>
       </c>
-      <c r="C113" s="8">
+      <c r="C113" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D113" s="8" t="s">
@@ -2788,7 +2798,7 @@
       <c r="B114" s="7">
         <v>29000</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D114" s="8" t="s">
@@ -2808,7 +2818,7 @@
       <c r="B115" s="7">
         <v>29032</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D115" s="8" t="s">
@@ -2828,7 +2838,7 @@
       <c r="B116" s="7">
         <v>29062</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C116" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D116" s="8" t="s">
@@ -2848,7 +2858,7 @@
       <c r="B117" s="7">
         <v>29091</v>
       </c>
-      <c r="C117" s="8">
+      <c r="C117" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D117" s="8" t="s">
@@ -2868,7 +2878,7 @@
       <c r="B118" s="7">
         <v>29123</v>
       </c>
-      <c r="C118" s="8">
+      <c r="C118" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D118" s="8" t="s">
@@ -2888,7 +2898,7 @@
       <c r="B119" s="7">
         <v>29154</v>
       </c>
-      <c r="C119" s="8">
+      <c r="C119" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D119" s="8" t="s">
@@ -2908,7 +2918,7 @@
       <c r="B120" s="7">
         <v>29186</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D120" s="8" t="s">
@@ -2928,7 +2938,7 @@
       <c r="B121" s="7">
         <v>29210</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C121" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D121" s="8" t="s">
@@ -2948,7 +2958,7 @@
       <c r="B122" s="7">
         <v>29245</v>
       </c>
-      <c r="C122" s="8">
+      <c r="C122" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D122" s="8" t="s">
@@ -2968,7 +2978,7 @@
       <c r="B123" s="7">
         <v>29273</v>
       </c>
-      <c r="C123" s="8">
+      <c r="C123" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D123" s="8" t="s">
@@ -2988,7 +2998,7 @@
       <c r="B124" s="7">
         <v>29305</v>
       </c>
-      <c r="C124" s="8">
+      <c r="C124" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D124" s="8" t="s">
@@ -3008,7 +3018,7 @@
       <c r="B125" s="7">
         <v>29333</v>
       </c>
-      <c r="C125" s="8">
+      <c r="C125" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D125" s="8" t="s">
@@ -3028,7 +3038,7 @@
       <c r="B126" s="7">
         <v>29364</v>
       </c>
-      <c r="C126" s="8">
+      <c r="C126" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D126" s="8" t="s">
@@ -3048,7 +3058,7 @@
       <c r="B127" s="7">
         <v>29396</v>
       </c>
-      <c r="C127" s="8">
+      <c r="C127" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D127" s="8" t="s">
@@ -3068,7 +3078,7 @@
       <c r="B128" s="7">
         <v>29425</v>
       </c>
-      <c r="C128" s="8">
+      <c r="C128" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D128" s="8" t="s">
@@ -3088,7 +3098,7 @@
       <c r="B129" s="7">
         <v>29455</v>
       </c>
-      <c r="C129" s="8">
+      <c r="C129" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D129" s="8" t="s">
@@ -3108,7 +3118,7 @@
       <c r="B130" s="7">
         <v>29487</v>
       </c>
-      <c r="C130" s="8">
+      <c r="C130" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D130" s="8" t="s">
@@ -3128,7 +3138,7 @@
       <c r="B131" s="7">
         <v>29518</v>
       </c>
-      <c r="C131" s="8">
+      <c r="C131" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D131" s="8" t="s">
@@ -3148,7 +3158,7 @@
       <c r="B132" s="7">
         <v>29550</v>
       </c>
-      <c r="C132" s="8">
+      <c r="C132" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D132" s="8" t="s">
@@ -3168,7 +3178,7 @@
       <c r="B133" s="7">
         <v>29578</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D133" s="8" t="s">
@@ -3188,7 +3198,7 @@
       <c r="B134" s="7">
         <v>29609</v>
       </c>
-      <c r="C134" s="8">
+      <c r="C134" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D134" s="8" t="s">
@@ -3208,7 +3218,7 @@
       <c r="B135" s="7">
         <v>29642</v>
       </c>
-      <c r="C135" s="8">
+      <c r="C135" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D135" s="8" t="s">
@@ -3228,7 +3238,7 @@
       <c r="B136" s="7">
         <v>29669</v>
       </c>
-      <c r="C136" s="8">
+      <c r="C136" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D136" s="8" t="s">
@@ -3248,7 +3258,7 @@
       <c r="B137" s="7">
         <v>29699</v>
       </c>
-      <c r="C137" s="8">
+      <c r="C137" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D137" s="8" t="s">
@@ -3268,7 +3278,7 @@
       <c r="B138" s="7">
         <v>29728</v>
       </c>
-      <c r="C138" s="8">
+      <c r="C138" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D138" s="8" t="s">
@@ -3288,7 +3298,7 @@
       <c r="B139" s="7">
         <v>29760</v>
       </c>
-      <c r="C139" s="8">
+      <c r="C139" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D139" s="8" t="s">
@@ -3308,7 +3318,7 @@
       <c r="B140" s="7">
         <v>29790</v>
       </c>
-      <c r="C140" s="8">
+      <c r="C140" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D140" s="8" t="s">
@@ -3328,7 +3338,7 @@
       <c r="B141" s="7">
         <v>29823</v>
       </c>
-      <c r="C141" s="8">
+      <c r="C141" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D141" s="8" t="s">
@@ -3348,7 +3358,7 @@
       <c r="B142" s="7">
         <v>29853</v>
       </c>
-      <c r="C142" s="8">
+      <c r="C142" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D142" s="8" t="s">
@@ -3368,7 +3378,7 @@
       <c r="B143" s="7">
         <v>29882</v>
       </c>
-      <c r="C143" s="8">
+      <c r="C143" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D143" s="8" t="s">
@@ -3388,7 +3398,7 @@
       <c r="B144" s="7">
         <v>29914</v>
       </c>
-      <c r="C144" s="8">
+      <c r="C144" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D144" s="8" t="s">
@@ -3408,7 +3418,7 @@
       <c r="B145" s="7">
         <v>29942</v>
       </c>
-      <c r="C145" s="8">
+      <c r="C145" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D145" s="8" t="s">
@@ -3428,7 +3438,7 @@
       <c r="B146" s="7">
         <v>29973</v>
       </c>
-      <c r="C146" s="8">
+      <c r="C146" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D146" s="8" t="s">
@@ -3448,7 +3458,7 @@
       <c r="B147" s="7">
         <v>30007</v>
       </c>
-      <c r="C147" s="8">
+      <c r="C147" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D147" s="8" t="s">
@@ -3468,7 +3478,7 @@
       <c r="B148" s="7">
         <v>30033</v>
       </c>
-      <c r="C148" s="8">
+      <c r="C148" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D148" s="8" t="s">
@@ -3488,7 +3498,7 @@
       <c r="B149" s="7">
         <v>30064</v>
       </c>
-      <c r="C149" s="8">
+      <c r="C149" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D149" s="8" t="s">
@@ -3508,7 +3518,7 @@
       <c r="B150" s="7">
         <v>30092</v>
       </c>
-      <c r="C150" s="8">
+      <c r="C150" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D150" s="8" t="s">
@@ -3528,7 +3538,7 @@
       <c r="B151" s="7">
         <v>30124</v>
       </c>
-      <c r="C151" s="8">
+      <c r="C151" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D151" s="8" t="s">
@@ -3548,7 +3558,7 @@
       <c r="B152" s="7">
         <v>30155</v>
       </c>
-      <c r="C152" s="8">
+      <c r="C152" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D152" s="8" t="s">
@@ -3568,7 +3578,7 @@
       <c r="B153" s="7">
         <v>30187</v>
       </c>
-      <c r="C153" s="8">
+      <c r="C153" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D153" s="8" t="s">
@@ -3588,7 +3598,7 @@
       <c r="B154" s="7">
         <v>30217</v>
       </c>
-      <c r="C154" s="8">
+      <c r="C154" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D154" s="8" t="s">
@@ -3608,7 +3618,7 @@
       <c r="B155" s="7">
         <v>30250</v>
       </c>
-      <c r="C155" s="8">
+      <c r="C155" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D155" s="8" t="s">
@@ -3628,7 +3638,7 @@
       <c r="B156" s="7">
         <v>30278</v>
       </c>
-      <c r="C156" s="8">
+      <c r="C156" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D156" s="8" t="s">
@@ -3648,7 +3658,7 @@
       <c r="B157" s="7">
         <v>30306</v>
       </c>
-      <c r="C157" s="8">
+      <c r="C157" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D157" s="8" t="s">
@@ -3668,7 +3678,7 @@
       <c r="B158" s="7">
         <v>30337</v>
       </c>
-      <c r="C158" s="8">
+      <c r="C158" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D158" s="8" t="s">
@@ -3688,7 +3698,7 @@
       <c r="B159" s="7">
         <v>30372</v>
       </c>
-      <c r="C159" s="8">
+      <c r="C159" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D159" s="8" t="s">
@@ -3708,7 +3718,7 @@
       <c r="B160" s="7">
         <v>30398</v>
       </c>
-      <c r="C160" s="8">
+      <c r="C160" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D160" s="8" t="s">
@@ -3728,7 +3738,7 @@
       <c r="B161" s="7">
         <v>30428</v>
       </c>
-      <c r="C161" s="8">
+      <c r="C161" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D161" s="8" t="s">
@@ -3748,7 +3758,7 @@
       <c r="B162" s="7">
         <v>30460</v>
       </c>
-      <c r="C162" s="8">
+      <c r="C162" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D162" s="8" t="s">
@@ -3768,7 +3778,7 @@
       <c r="B163" s="7">
         <v>30489</v>
       </c>
-      <c r="C163" s="8">
+      <c r="C163" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D163" s="8" t="s">
@@ -3788,7 +3798,7 @@
       <c r="B164" s="7">
         <v>30519</v>
       </c>
-      <c r="C164" s="8">
+      <c r="C164" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D164" s="8" t="s">
@@ -3808,7 +3818,7 @@
       <c r="B165" s="7">
         <v>30551</v>
       </c>
-      <c r="C165" s="8">
+      <c r="C165" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D165" s="8" t="s">
@@ -3828,7 +3838,7 @@
       <c r="B166" s="7">
         <v>30582</v>
       </c>
-      <c r="C166" s="8">
+      <c r="C166" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D166" s="8" t="s">
@@ -3848,7 +3858,7 @@
       <c r="B167" s="7">
         <v>30614</v>
       </c>
-      <c r="C167" s="8">
+      <c r="C167" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D167" s="8" t="s">
@@ -3868,7 +3878,7 @@
       <c r="B168" s="7">
         <v>30643</v>
       </c>
-      <c r="C168" s="8">
+      <c r="C168" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D168" s="8" t="s">
@@ -3888,7 +3898,7 @@
       <c r="B169" s="7">
         <v>30671</v>
       </c>
-      <c r="C169" s="8">
+      <c r="C169" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D169" s="8" t="s">
@@ -3908,7 +3918,7 @@
       <c r="B170" s="7">
         <v>30705</v>
       </c>
-      <c r="C170" s="8">
+      <c r="C170" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D170" s="8" t="s">
@@ -3928,7 +3938,7 @@
       <c r="B171" s="7">
         <v>30736</v>
       </c>
-      <c r="C171" s="8">
+      <c r="C171" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D171" s="8" t="s">
@@ -3948,7 +3958,7 @@
       <c r="B172" s="7">
         <v>30764</v>
       </c>
-      <c r="C172" s="8">
+      <c r="C172" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D172" s="8" t="s">
@@ -3968,7 +3978,7 @@
       <c r="B173" s="7">
         <v>30796</v>
       </c>
-      <c r="C173" s="8">
+      <c r="C173" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D173" s="8" t="s">
@@ -3988,7 +3998,7 @@
       <c r="B174" s="7">
         <v>30824</v>
       </c>
-      <c r="C174" s="8">
+      <c r="C174" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D174" s="8" t="s">
@@ -4008,7 +4018,7 @@
       <c r="B175" s="7">
         <v>30855</v>
       </c>
-      <c r="C175" s="8">
+      <c r="C175" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D175" s="8" t="s">
@@ -4028,7 +4038,7 @@
       <c r="B176" s="7">
         <v>30887</v>
       </c>
-      <c r="C176" s="8">
+      <c r="C176" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D176" s="8" t="s">
@@ -4048,7 +4058,7 @@
       <c r="B177" s="7">
         <v>30916</v>
       </c>
-      <c r="C177" s="8">
+      <c r="C177" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D177" s="8" t="s">
@@ -4068,7 +4078,7 @@
       <c r="B178" s="7">
         <v>30946</v>
       </c>
-      <c r="C178" s="8">
+      <c r="C178" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D178" s="8" t="s">
@@ -4088,7 +4098,7 @@
       <c r="B179" s="7">
         <v>30979</v>
       </c>
-      <c r="C179" s="8">
+      <c r="C179" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D179" s="8" t="s">
@@ -4108,7 +4118,7 @@
       <c r="B180" s="7">
         <v>31007</v>
       </c>
-      <c r="C180" s="8">
+      <c r="C180" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D180" s="8" t="s">
@@ -4128,7 +4138,7 @@
       <c r="B181" s="7">
         <v>31036</v>
       </c>
-      <c r="C181" s="8">
+      <c r="C181" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D181" s="8" t="s">
@@ -4148,7 +4158,7 @@
       <c r="B182" s="7">
         <v>31070</v>
       </c>
-      <c r="C182" s="8">
+      <c r="C182" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D182" s="8" t="s">
@@ -4168,7 +4178,7 @@
       <c r="B183" s="7">
         <v>31104</v>
       </c>
-      <c r="C183" s="8">
+      <c r="C183" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D183" s="8" t="s">
@@ -4188,7 +4198,7 @@
       <c r="B184" s="7">
         <v>31128</v>
       </c>
-      <c r="C184" s="8">
+      <c r="C184" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D184" s="8" t="s">
@@ -4208,7 +4218,7 @@
       <c r="B185" s="7">
         <v>31160</v>
       </c>
-      <c r="C185" s="8">
+      <c r="C185" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D185" s="8" t="s">
@@ -4228,7 +4238,7 @@
       <c r="B186" s="7">
         <v>31188</v>
       </c>
-      <c r="C186" s="8">
+      <c r="C186" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D186" s="8" t="s">
@@ -4248,7 +4258,7 @@
       <c r="B187" s="7">
         <v>31218</v>
       </c>
-      <c r="C187" s="8">
+      <c r="C187" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D187" s="8" t="s">
@@ -4268,7 +4278,7 @@
       <c r="B188" s="7">
         <v>31251</v>
       </c>
-      <c r="C188" s="8">
+      <c r="C188" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D188" s="8" t="s">
@@ -4288,7 +4298,7 @@
       <c r="B189" s="7">
         <v>31281</v>
       </c>
-      <c r="C189" s="8">
+      <c r="C189" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D189" s="8" t="s">
@@ -4308,7 +4318,7 @@
       <c r="B190" s="7">
         <v>31314</v>
       </c>
-      <c r="C190" s="8">
+      <c r="C190" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D190" s="8" t="s">
@@ -4328,7 +4338,7 @@
       <c r="B191" s="7">
         <v>31343</v>
       </c>
-      <c r="C191" s="8">
+      <c r="C191" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D191" s="8" t="s">
@@ -4348,7 +4358,7 @@
       <c r="B192" s="7">
         <v>31373</v>
       </c>
-      <c r="C192" s="8">
+      <c r="C192" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D192" s="8" t="s">
@@ -4368,7 +4378,7 @@
       <c r="B193" s="7">
         <v>31401</v>
       </c>
-      <c r="C193" s="8">
+      <c r="C193" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D193" s="8" t="s">
@@ -4388,7 +4398,7 @@
       <c r="B194" s="7">
         <v>31434</v>
       </c>
-      <c r="C194" s="8">
+      <c r="C194" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D194" s="8" t="s">
@@ -4408,7 +4418,7 @@
       <c r="B195" s="7">
         <v>31468</v>
       </c>
-      <c r="C195" s="8">
+      <c r="C195" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D195" s="8" t="s">
@@ -4428,7 +4438,7 @@
       <c r="B196" s="7">
         <v>31496</v>
       </c>
-      <c r="C196" s="8">
+      <c r="C196" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D196" s="8" t="s">
@@ -4448,7 +4458,7 @@
       <c r="B197" s="7">
         <v>31524</v>
       </c>
-      <c r="C197" s="8">
+      <c r="C197" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D197" s="8" t="s">
@@ -4468,7 +4478,7 @@
       <c r="B198" s="7">
         <v>31553</v>
       </c>
-      <c r="C198" s="8">
+      <c r="C198" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D198" s="8" t="s">
@@ -4488,7 +4498,7 @@
       <c r="B199" s="7">
         <v>31583</v>
       </c>
-      <c r="C199" s="8">
+      <c r="C199" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D199" s="8" t="s">
@@ -4508,7 +4518,7 @@
       <c r="B200" s="7">
         <v>31616</v>
       </c>
-      <c r="C200" s="8">
+      <c r="C200" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D200" s="8" t="s">
@@ -4528,7 +4538,7 @@
       <c r="B201" s="7">
         <v>31645</v>
       </c>
-      <c r="C201" s="8">
+      <c r="C201" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D201" s="8" t="s">
@@ -4548,7 +4558,7 @@
       <c r="B202" s="7">
         <v>31678</v>
       </c>
-      <c r="C202" s="8">
+      <c r="C202" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D202" s="8" t="s">
@@ -4568,7 +4578,7 @@
       <c r="B203" s="7">
         <v>31708</v>
       </c>
-      <c r="C203" s="8">
+      <c r="C203" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D203" s="8" t="s">
@@ -4588,7 +4598,7 @@
       <c r="B204" s="7">
         <v>31741</v>
       </c>
-      <c r="C204" s="8">
+      <c r="C204" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D204" s="8" t="s">
@@ -4608,7 +4618,7 @@
       <c r="B205" s="7">
         <v>31765</v>
       </c>
-      <c r="C205" s="8">
+      <c r="C205" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D205" s="8" t="s">
@@ -4628,7 +4638,7 @@
       <c r="B206" s="7">
         <v>31798</v>
       </c>
-      <c r="C206" s="8">
+      <c r="C206" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D206" s="8" t="s">
@@ -4648,7 +4658,7 @@
       <c r="B207" s="7">
         <v>31835</v>
       </c>
-      <c r="C207" s="8">
+      <c r="C207" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D207" s="8" t="s">
@@ -4668,7 +4678,7 @@
       <c r="B208" s="7">
         <v>31863</v>
       </c>
-      <c r="C208" s="8">
+      <c r="C208" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D208" s="8" t="s">
@@ -4688,7 +4698,7 @@
       <c r="B209" s="7">
         <v>31891</v>
       </c>
-      <c r="C209" s="8">
+      <c r="C209" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D209" s="8" t="s">
@@ -4708,7 +4718,7 @@
       <c r="B210" s="7">
         <v>31919</v>
       </c>
-      <c r="C210" s="8">
+      <c r="C210" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D210" s="8" t="s">
@@ -4728,7 +4738,7 @@
       <c r="B211" s="7">
         <v>31951</v>
       </c>
-      <c r="C211" s="8">
+      <c r="C211" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D211" s="8" t="s">
@@ -4748,7 +4758,7 @@
       <c r="B212" s="7">
         <v>31980</v>
       </c>
-      <c r="C212" s="8">
+      <c r="C212" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D212" s="8" t="s">
@@ -4768,7 +4778,7 @@
       <c r="B213" s="7">
         <v>32010</v>
       </c>
-      <c r="C213" s="8">
+      <c r="C213" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D213" s="8" t="s">
@@ -4788,7 +4798,7 @@
       <c r="B214" s="7">
         <v>32043</v>
       </c>
-      <c r="C214" s="8">
+      <c r="C214" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D214" s="8" t="s">
@@ -4808,7 +4818,7 @@
       <c r="B215" s="7">
         <v>32073</v>
       </c>
-      <c r="C215" s="8">
+      <c r="C215" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D215" s="8" t="s">
@@ -4828,7 +4838,7 @@
       <c r="B216" s="7">
         <v>32101</v>
       </c>
-      <c r="C216" s="8">
+      <c r="C216" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D216" s="8" t="s">
@@ -4848,7 +4858,7 @@
       <c r="B217" s="7">
         <v>32129</v>
       </c>
-      <c r="C217" s="8">
+      <c r="C217" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D217" s="8" t="s">
@@ -4868,7 +4878,7 @@
       <c r="B218" s="7">
         <v>32162</v>
       </c>
-      <c r="C218" s="8">
+      <c r="C218" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D218" s="8" t="s">
@@ -4888,7 +4898,7 @@
       <c r="B219" s="7">
         <v>32199</v>
       </c>
-      <c r="C219" s="8">
+      <c r="C219" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D219" s="8" t="s">
@@ -4908,7 +4918,7 @@
       <c r="B220" s="7">
         <v>32225</v>
       </c>
-      <c r="C220" s="8">
+      <c r="C220" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D220" s="8" t="s">
@@ -4928,7 +4938,7 @@
       <c r="B221" s="7">
         <v>32253</v>
       </c>
-      <c r="C221" s="8">
+      <c r="C221" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D221" s="8" t="s">
@@ -4948,7 +4958,7 @@
       <c r="B222" s="7">
         <v>32283</v>
       </c>
-      <c r="C222" s="8">
+      <c r="C222" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D222" s="8" t="s">
@@ -4968,7 +4978,7 @@
       <c r="B223" s="7">
         <v>32315</v>
       </c>
-      <c r="C223" s="8">
+      <c r="C223" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D223" s="8" t="s">
@@ -4988,7 +4998,7 @@
       <c r="B224" s="7">
         <v>32346</v>
       </c>
-      <c r="C224" s="8">
+      <c r="C224" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D224" s="8" t="s">
@@ -5008,7 +5018,7 @@
       <c r="B225" s="7">
         <v>32378</v>
       </c>
-      <c r="C225" s="8">
+      <c r="C225" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D225" s="8" t="s">
@@ -5028,7 +5038,7 @@
       <c r="B226" s="7">
         <v>32407</v>
       </c>
-      <c r="C226" s="8">
+      <c r="C226" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D226" s="8" t="s">
@@ -5048,7 +5058,7 @@
       <c r="B227" s="7">
         <v>32437</v>
       </c>
-      <c r="C227" s="8">
+      <c r="C227" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D227" s="8" t="s">
@@ -5068,7 +5078,7 @@
       <c r="B228" s="7">
         <v>32469</v>
       </c>
-      <c r="C228" s="8">
+      <c r="C228" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D228" s="8" t="s">
@@ -5088,7 +5098,7 @@
       <c r="B229" s="7">
         <v>32497</v>
       </c>
-      <c r="C229" s="8">
+      <c r="C229" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D229" s="8" t="s">
@@ -5108,7 +5118,7 @@
       <c r="B230" s="7">
         <v>32527</v>
       </c>
-      <c r="C230" s="8">
+      <c r="C230" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D230" s="8" t="s">
@@ -5128,7 +5138,7 @@
       <c r="B231" s="7">
         <v>32561</v>
       </c>
-      <c r="C231" s="8">
+      <c r="C231" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D231" s="8" t="s">
@@ -5148,7 +5158,7 @@
       <c r="B232" s="7">
         <v>32588</v>
       </c>
-      <c r="C232" s="8">
+      <c r="C232" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D232" s="8" t="s">
@@ -5168,7 +5178,7 @@
       <c r="B233" s="7">
         <v>32616</v>
       </c>
-      <c r="C233" s="8">
+      <c r="C233" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D233" s="8" t="s">
@@ -5188,7 +5198,7 @@
       <c r="B234" s="7">
         <v>32646</v>
       </c>
-      <c r="C234" s="8">
+      <c r="C234" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D234" s="8" t="s">
@@ -5208,7 +5218,7 @@
       <c r="B235" s="7">
         <v>32675</v>
       </c>
-      <c r="C235" s="8">
+      <c r="C235" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D235" s="8" t="s">
@@ -5228,7 +5238,7 @@
       <c r="B236" s="7">
         <v>32708</v>
       </c>
-      <c r="C236" s="8">
+      <c r="C236" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D236" s="8" t="s">
@@ -5248,7 +5258,7 @@
       <c r="B237" s="7">
         <v>32738</v>
       </c>
-      <c r="C237" s="8">
+      <c r="C237" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D237" s="8" t="s">
@@ -5268,7 +5278,7 @@
       <c r="B238" s="7">
         <v>32770</v>
       </c>
-      <c r="C238" s="8">
+      <c r="C238" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D238" s="8" t="s">
@@ -5288,7 +5298,7 @@
       <c r="B239" s="7">
         <v>32800</v>
       </c>
-      <c r="C239" s="8">
+      <c r="C239" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D239" s="8" t="s">
@@ -5308,7 +5318,7 @@
       <c r="B240" s="7">
         <v>32833</v>
       </c>
-      <c r="C240" s="8">
+      <c r="C240" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D240" s="8" t="s">
@@ -5328,7 +5338,7 @@
       <c r="B241" s="7">
         <v>32861</v>
       </c>
-      <c r="C241" s="8">
+      <c r="C241" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D241" s="8" t="s">
@@ -5348,7 +5358,7 @@
       <c r="B242" s="7">
         <v>32891</v>
       </c>
-      <c r="C242" s="8">
+      <c r="C242" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D242" s="8" t="s">
@@ -5368,7 +5378,7 @@
       <c r="B243" s="7">
         <v>32925</v>
       </c>
-      <c r="C243" s="8">
+      <c r="C243" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D243" s="8" t="s">
@@ -5388,7 +5398,7 @@
       <c r="B244" s="7">
         <v>32952</v>
       </c>
-      <c r="C244" s="8">
+      <c r="C244" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D244" s="8" t="s">
@@ -5408,7 +5418,7 @@
       <c r="B245" s="7">
         <v>32980</v>
       </c>
-      <c r="C245" s="8">
+      <c r="C245" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D245" s="8" t="s">
@@ -5428,7 +5438,7 @@
       <c r="B246" s="7">
         <v>33009</v>
       </c>
-      <c r="C246" s="8">
+      <c r="C246" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D246" s="8" t="s">
@@ -5448,7 +5458,7 @@
       <c r="B247" s="7">
         <v>33039</v>
       </c>
-      <c r="C247" s="8">
+      <c r="C247" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D247" s="8" t="s">
@@ -5468,7 +5478,7 @@
       <c r="B248" s="7">
         <v>33072</v>
       </c>
-      <c r="C248" s="8">
+      <c r="C248" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D248" s="8" t="s">
@@ -5488,7 +5498,7 @@
       <c r="B249" s="7">
         <v>33101</v>
       </c>
-      <c r="C249" s="8">
+      <c r="C249" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D249" s="8" t="s">
@@ -5508,7 +5518,7 @@
       <c r="B250" s="7">
         <v>33134</v>
       </c>
-      <c r="C250" s="8">
+      <c r="C250" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D250" s="8" t="s">
@@ -5528,7 +5538,7 @@
       <c r="B251" s="7">
         <v>33164</v>
       </c>
-      <c r="C251" s="8">
+      <c r="C251" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D251" s="8" t="s">
@@ -5548,7 +5558,7 @@
       <c r="B252" s="7">
         <v>33193</v>
       </c>
-      <c r="C252" s="8">
+      <c r="C252" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D252" s="8" t="s">
@@ -5568,7 +5578,7 @@
       <c r="B253" s="7">
         <v>33225</v>
       </c>
-      <c r="C253" s="8">
+      <c r="C253" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D253" s="8" t="s">
@@ -5588,7 +5598,7 @@
       <c r="B254" s="7">
         <v>33254</v>
       </c>
-      <c r="C254" s="8">
+      <c r="C254" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D254" s="8" t="s">
@@ -5608,7 +5618,7 @@
       <c r="B255" s="7">
         <v>33289</v>
       </c>
-      <c r="C255" s="8">
+      <c r="C255" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D255" s="8" t="s">
@@ -5628,7 +5638,7 @@
       <c r="B256" s="7">
         <v>33316</v>
       </c>
-      <c r="C256" s="8">
+      <c r="C256" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D256" s="8" t="s">
@@ -5648,7 +5658,7 @@
       <c r="B257" s="7">
         <v>33340</v>
       </c>
-      <c r="C257" s="8">
+      <c r="C257" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D257" s="8" t="s">
@@ -5668,7 +5678,7 @@
       <c r="B258" s="7">
         <v>33372</v>
       </c>
-      <c r="C258" s="8">
+      <c r="C258" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D258" s="8" t="s">
@@ -5688,7 +5698,7 @@
       <c r="B259" s="7">
         <v>33403</v>
       </c>
-      <c r="C259" s="8">
+      <c r="C259" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D259" s="8" t="s">
@@ -5708,7 +5718,7 @@
       <c r="B260" s="7">
         <v>33436</v>
       </c>
-      <c r="C260" s="8">
+      <c r="C260" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D260" s="8" t="s">
@@ -5728,7 +5738,7 @@
       <c r="B261" s="7">
         <v>33464</v>
       </c>
-      <c r="C261" s="8">
+      <c r="C261" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D261" s="8" t="s">
@@ -5748,7 +5758,7 @@
       <c r="B262" s="7">
         <v>33494</v>
       </c>
-      <c r="C262" s="8">
+      <c r="C262" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D262" s="8" t="s">
@@ -5768,7 +5778,7 @@
       <c r="B263" s="7">
         <v>33528</v>
       </c>
-      <c r="C263" s="8">
+      <c r="C263" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D263" s="8" t="s">
@@ -5788,7 +5798,7 @@
       <c r="B264" s="7">
         <v>33556</v>
       </c>
-      <c r="C264" s="8">
+      <c r="C264" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D264" s="8" t="s">
@@ -5808,7 +5818,7 @@
       <c r="B265" s="7">
         <v>33585</v>
       </c>
-      <c r="C265" s="8">
+      <c r="C265" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D265" s="8" t="s">
@@ -5828,7 +5838,7 @@
       <c r="B266" s="7">
         <v>33619</v>
       </c>
-      <c r="C266" s="8">
+      <c r="C266" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D266" s="8" t="s">
@@ -5848,7 +5858,7 @@
       <c r="B267" s="7">
         <v>33653</v>
       </c>
-      <c r="C267" s="8">
+      <c r="C267" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D267" s="8" t="s">
@@ -5868,7 +5878,7 @@
       <c r="B268" s="7">
         <v>33680</v>
       </c>
-      <c r="C268" s="8">
+      <c r="C268" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D268" s="8" t="s">
@@ -5888,7 +5898,7 @@
       <c r="B269" s="7">
         <v>33704</v>
       </c>
-      <c r="C269" s="8">
+      <c r="C269" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D269" s="8" t="s">
@@ -5908,7 +5918,7 @@
       <c r="B270" s="7">
         <v>33737</v>
       </c>
-      <c r="C270" s="8">
+      <c r="C270" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D270" s="8" t="s">
@@ -5928,7 +5938,7 @@
       <c r="B271" s="7">
         <v>33767</v>
       </c>
-      <c r="C271" s="8">
+      <c r="C271" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D271" s="8" t="s">
@@ -5948,7 +5958,7 @@
       <c r="B272" s="7">
         <v>33799</v>
       </c>
-      <c r="C272" s="8">
+      <c r="C272" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D272" s="8" t="s">
@@ -5968,7 +5978,7 @@
       <c r="B273" s="7">
         <v>33829</v>
       </c>
-      <c r="C273" s="8">
+      <c r="C273" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D273" s="8" t="s">
@@ -5988,7 +5998,7 @@
       <c r="B274" s="7">
         <v>33862</v>
       </c>
-      <c r="C274" s="8">
+      <c r="C274" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D274" s="8" t="s">
@@ -6008,7 +6018,7 @@
       <c r="B275" s="7">
         <v>33892</v>
       </c>
-      <c r="C275" s="8">
+      <c r="C275" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D275" s="8" t="s">
@@ -6028,7 +6038,7 @@
       <c r="B276" s="7">
         <v>33921</v>
       </c>
-      <c r="C276" s="8">
+      <c r="C276" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D276" s="8" t="s">
@@ -6048,7 +6058,7 @@
       <c r="B277" s="7">
         <v>33951</v>
       </c>
-      <c r="C277" s="8">
+      <c r="C277" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D277" s="8" t="s">
@@ -6068,7 +6078,7 @@
       <c r="B278" s="7">
         <v>33984</v>
       </c>
-      <c r="C278" s="8">
+      <c r="C278" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D278" s="8" t="s">
@@ -6088,7 +6098,7 @@
       <c r="B279" s="7">
         <v>34018</v>
       </c>
-      <c r="C279" s="8">
+      <c r="C279" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D279" s="8" t="s">
@@ -6108,7 +6118,7 @@
       <c r="B280" s="7">
         <v>34045</v>
       </c>
-      <c r="C280" s="8">
+      <c r="C280" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D280" s="8" t="s">
@@ -6128,7 +6138,7 @@
       <c r="B281" s="7">
         <v>34068</v>
       </c>
-      <c r="C281" s="8">
+      <c r="C281" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D281" s="8" t="s">
@@ -6148,7 +6158,7 @@
       <c r="B282" s="7">
         <v>34102</v>
       </c>
-      <c r="C282" s="8">
+      <c r="C282" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D282" s="8" t="s">
@@ -6168,7 +6178,7 @@
       <c r="B283" s="7">
         <v>34135</v>
       </c>
-      <c r="C283" s="8">
+      <c r="C283" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D283" s="8" t="s">
@@ -6188,7 +6198,7 @@
       <c r="B284" s="7">
         <v>34164</v>
       </c>
-      <c r="C284" s="8">
+      <c r="C284" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D284" s="8" t="s">
@@ -6208,7 +6218,7 @@
       <c r="B285" s="7">
         <v>34194</v>
       </c>
-      <c r="C285" s="8">
+      <c r="C285" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D285" s="8" t="s">
@@ -6228,7 +6238,7 @@
       <c r="B286" s="7">
         <v>34226</v>
       </c>
-      <c r="C286" s="8">
+      <c r="C286" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D286" s="8" t="s">
@@ -6248,7 +6258,7 @@
       <c r="B287" s="7">
         <v>34257</v>
       </c>
-      <c r="C287" s="8">
+      <c r="C287" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D287" s="8" t="s">
@@ -6268,7 +6278,7 @@
       <c r="B288" s="7">
         <v>34283</v>
       </c>
-      <c r="C288" s="8">
+      <c r="C288" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D288" s="8" t="s">
@@ -6288,7 +6298,7 @@
       <c r="B289" s="7">
         <v>34313</v>
       </c>
-      <c r="C289" s="8">
+      <c r="C289" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D289" s="8" t="s">
@@ -6308,7 +6318,7 @@
       <c r="B290" s="7">
         <v>34347</v>
       </c>
-      <c r="C290" s="8">
+      <c r="C290" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D290" s="8" t="s">
@@ -6328,7 +6338,7 @@
       <c r="B291" s="7">
         <v>34382</v>
       </c>
-      <c r="C291" s="8">
+      <c r="C291" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D291" s="8" t="s">
@@ -6348,7 +6358,7 @@
       <c r="B292" s="7">
         <v>34409</v>
       </c>
-      <c r="C292" s="8">
+      <c r="C292" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D292" s="8" t="s">
@@ -6368,7 +6378,7 @@
       <c r="B293" s="7">
         <v>34437</v>
       </c>
-      <c r="C293" s="8">
+      <c r="C293" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D293" s="8" t="s">
@@ -6388,7 +6398,7 @@
       <c r="B294" s="7">
         <v>34467</v>
       </c>
-      <c r="C294" s="8">
+      <c r="C294" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D294" s="8" t="s">
@@ -6408,7 +6418,7 @@
       <c r="B295" s="7">
         <v>34499</v>
       </c>
-      <c r="C295" s="8">
+      <c r="C295" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D295" s="8" t="s">
@@ -6428,7 +6438,7 @@
       <c r="B296" s="7">
         <v>34528</v>
       </c>
-      <c r="C296" s="8">
+      <c r="C296" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D296" s="8" t="s">
@@ -6448,7 +6458,7 @@
       <c r="B297" s="7">
         <v>34558</v>
       </c>
-      <c r="C297" s="8">
+      <c r="C297" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D297" s="8" t="s">
@@ -6468,7 +6478,7 @@
       <c r="B298" s="7">
         <v>34590</v>
       </c>
-      <c r="C298" s="8">
+      <c r="C298" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D298" s="8" t="s">
@@ -6488,7 +6498,7 @@
       <c r="B299" s="7">
         <v>34621</v>
       </c>
-      <c r="C299" s="8">
+      <c r="C299" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D299" s="8" t="s">
@@ -6508,7 +6518,7 @@
       <c r="B300" s="7">
         <v>34654</v>
       </c>
-      <c r="C300" s="8">
+      <c r="C300" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D300" s="8" t="s">
@@ -6528,7 +6538,7 @@
       <c r="B301" s="7">
         <v>34682</v>
       </c>
-      <c r="C301" s="8">
+      <c r="C301" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D301" s="8" t="s">
@@ -6548,7 +6558,7 @@
       <c r="B302" s="7">
         <v>34710</v>
       </c>
-      <c r="C302" s="8">
+      <c r="C302" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D302" s="8" t="s">
@@ -6568,7 +6578,7 @@
       <c r="B303" s="7">
         <v>34745</v>
       </c>
-      <c r="C303" s="8">
+      <c r="C303" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D303" s="8" t="s">
@@ -6588,7 +6598,7 @@
       <c r="B304" s="7">
         <v>34774</v>
       </c>
-      <c r="C304" s="8">
+      <c r="C304" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D304" s="8" t="s">
@@ -6608,7 +6618,7 @@
       <c r="B305" s="7">
         <v>34801</v>
       </c>
-      <c r="C305" s="8">
+      <c r="C305" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D305" s="8" t="s">
@@ -6628,7 +6638,7 @@
       <c r="B306" s="7">
         <v>34831</v>
       </c>
-      <c r="C306" s="8">
+      <c r="C306" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D306" s="8" t="s">
@@ -6648,7 +6658,7 @@
       <c r="B307" s="7">
         <v>34863</v>
       </c>
-      <c r="C307" s="8">
+      <c r="C307" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D307" s="8" t="s">
@@ -6668,7 +6678,7 @@
       <c r="B308" s="7">
         <v>34894</v>
       </c>
-      <c r="C308" s="8">
+      <c r="C308" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D308" s="8" t="s">
@@ -6688,7 +6698,7 @@
       <c r="B309" s="7">
         <v>34922</v>
       </c>
-      <c r="C309" s="8">
+      <c r="C309" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D309" s="8" t="s">
@@ -6708,7 +6718,7 @@
       <c r="B310" s="7">
         <v>34955</v>
       </c>
-      <c r="C310" s="8">
+      <c r="C310" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D310" s="8" t="s">
@@ -6728,7 +6738,7 @@
       <c r="B311" s="7">
         <v>34985</v>
       </c>
-      <c r="C311" s="8">
+      <c r="C311" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D311" s="8" t="s">
@@ -6748,7 +6758,7 @@
       <c r="B312" s="7">
         <v>35018</v>
       </c>
-      <c r="C312" s="8">
+      <c r="C312" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D312" s="8" t="s">
@@ -6768,7 +6778,7 @@
       <c r="B313" s="7">
         <v>35047</v>
       </c>
-      <c r="C313" s="8">
+      <c r="C313" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D313" s="8" t="s">
@@ -6788,7 +6798,7 @@
       <c r="B314" s="7">
         <v>35096</v>
       </c>
-      <c r="C314" s="8">
+      <c r="C314" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D314" s="8" t="s">
@@ -6808,7 +6818,7 @@
       <c r="B315" s="7">
         <v>35123</v>
       </c>
-      <c r="C315" s="8">
+      <c r="C315" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D315" s="8" t="s">
@@ -6828,7 +6838,7 @@
       <c r="B316" s="7">
         <v>35139</v>
       </c>
-      <c r="C316" s="8">
+      <c r="C316" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D316" s="8" t="s">
@@ -6848,7 +6858,7 @@
       <c r="B317" s="7">
         <v>35167</v>
       </c>
-      <c r="C317" s="8">
+      <c r="C317" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D317" s="8" t="s">
@@ -6868,7 +6878,7 @@
       <c r="B318" s="7">
         <v>35199</v>
       </c>
-      <c r="C318" s="8">
+      <c r="C318" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D318" s="8" t="s">
@@ -6888,7 +6898,7 @@
       <c r="B319" s="7">
         <v>35228</v>
       </c>
-      <c r="C319" s="8">
+      <c r="C319" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D319" s="8" t="s">
@@ -6908,7 +6918,7 @@
       <c r="B320" s="7">
         <v>35262</v>
       </c>
-      <c r="C320" s="8">
+      <c r="C320" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D320" s="8" t="s">
@@ -6928,7 +6938,7 @@
       <c r="B321" s="7">
         <v>35290</v>
       </c>
-      <c r="C321" s="8">
+      <c r="C321" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D321" s="8" t="s">
@@ -6948,7 +6958,7 @@
       <c r="B322" s="7">
         <v>35321</v>
       </c>
-      <c r="C322" s="8">
+      <c r="C322" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D322" s="8" t="s">
@@ -6968,7 +6978,7 @@
       <c r="B323" s="7">
         <v>35354</v>
       </c>
-      <c r="C323" s="8">
+      <c r="C323" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D323" s="8" t="s">
@@ -6988,7 +6998,7 @@
       <c r="B324" s="7">
         <v>35383</v>
       </c>
-      <c r="C324" s="8">
+      <c r="C324" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D324" s="8" t="s">
@@ -7008,7 +7018,7 @@
       <c r="B325" s="7">
         <v>35411</v>
       </c>
-      <c r="C325" s="8">
+      <c r="C325" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D325" s="8" t="s">
@@ -7028,7 +7038,7 @@
       <c r="B326" s="7">
         <v>35444</v>
       </c>
-      <c r="C326" s="8">
+      <c r="C326" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D326" s="8" t="s">
@@ -7048,7 +7058,7 @@
       <c r="B327" s="7">
         <v>35480</v>
       </c>
-      <c r="C327" s="8">
+      <c r="C327" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D327" s="8" t="s">
@@ -7068,7 +7078,7 @@
       <c r="B328" s="7">
         <v>35508</v>
       </c>
-      <c r="C328" s="8">
+      <c r="C328" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D328" s="8" t="s">
@@ -7088,7 +7098,7 @@
       <c r="B329" s="7">
         <v>35535</v>
       </c>
-      <c r="C329" s="8">
+      <c r="C329" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D329" s="8" t="s">
@@ -7108,7 +7118,7 @@
       <c r="B330" s="7">
         <v>35565</v>
       </c>
-      <c r="C330" s="8">
+      <c r="C330" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D330" s="8" t="s">
@@ -7128,7 +7138,7 @@
       <c r="B331" s="7">
         <v>35598</v>
       </c>
-      <c r="C331" s="8">
+      <c r="C331" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D331" s="8" t="s">
@@ -7148,7 +7158,7 @@
       <c r="B332" s="7">
         <v>35627</v>
       </c>
-      <c r="C332" s="8">
+      <c r="C332" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D332" s="8" t="s">
@@ -7168,7 +7178,7 @@
       <c r="B333" s="7">
         <v>35656</v>
       </c>
-      <c r="C333" s="8">
+      <c r="C333" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D333" s="8" t="s">
@@ -7188,7 +7198,7 @@
       <c r="B334" s="7">
         <v>35689</v>
       </c>
-      <c r="C334" s="8">
+      <c r="C334" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D334" s="8" t="s">
@@ -7208,7 +7218,7 @@
       <c r="B335" s="7">
         <v>35719</v>
       </c>
-      <c r="C335" s="8">
+      <c r="C335" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D335" s="8" t="s">
@@ -7228,7 +7238,7 @@
       <c r="B336" s="7">
         <v>35752</v>
       </c>
-      <c r="C336" s="8">
+      <c r="C336" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D336" s="8" t="s">
@@ -7248,7 +7258,7 @@
       <c r="B337" s="7">
         <v>35780</v>
       </c>
-      <c r="C337" s="8">
+      <c r="C337" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D337" s="8" t="s">
@@ -7268,7 +7278,7 @@
       <c r="B338" s="7">
         <v>35808</v>
       </c>
-      <c r="C338" s="8">
+      <c r="C338" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D338" s="8" t="s">
@@ -7288,7 +7298,7 @@
       <c r="B339" s="7">
         <v>35850</v>
       </c>
-      <c r="C339" s="8">
+      <c r="C339" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D339" s="8" t="s">
@@ -7308,7 +7318,7 @@
       <c r="B340" s="7">
         <v>35873</v>
       </c>
-      <c r="C340" s="8">
+      <c r="C340" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D340" s="8" t="s">
@@ -7328,7 +7338,7 @@
       <c r="B341" s="7">
         <v>35899</v>
       </c>
-      <c r="C341" s="8">
+      <c r="C341" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D341" s="8" t="s">
@@ -7348,7 +7358,7 @@
       <c r="B342" s="7">
         <v>35929</v>
       </c>
-      <c r="C342" s="8">
+      <c r="C342" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D342" s="8" t="s">
@@ -7368,7 +7378,7 @@
       <c r="B343" s="7">
         <v>35962</v>
       </c>
-      <c r="C343" s="8">
+      <c r="C343" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D343" s="8" t="s">
@@ -7388,7 +7398,7 @@
       <c r="B344" s="7">
         <v>35990</v>
       </c>
-      <c r="C344" s="8">
+      <c r="C344" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D344" s="8" t="s">
@@ -7408,7 +7418,7 @@
       <c r="B345" s="7">
         <v>36025</v>
       </c>
-      <c r="C345" s="8">
+      <c r="C345" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D345" s="8" t="s">
@@ -7428,7 +7438,7 @@
       <c r="B346" s="7">
         <v>36055</v>
       </c>
-      <c r="C346" s="8">
+      <c r="C346" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D346" s="8" t="s">
@@ -7448,7 +7458,7 @@
       <c r="B347" s="7">
         <v>36084</v>
       </c>
-      <c r="C347" s="8">
+      <c r="C347" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D347" s="8" t="s">
@@ -7468,7 +7478,7 @@
       <c r="B348" s="7">
         <v>36116</v>
       </c>
-      <c r="C348" s="8">
+      <c r="C348" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D348" s="8" t="s">
@@ -7488,7 +7498,7 @@
       <c r="B349" s="7">
         <v>36144</v>
       </c>
-      <c r="C349" s="8">
+      <c r="C349" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D349" s="8" t="s">
@@ -7508,7 +7518,7 @@
       <c r="B350" s="7">
         <v>36174</v>
       </c>
-      <c r="C350" s="8">
+      <c r="C350" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D350" s="8" t="s">
@@ -7528,7 +7538,7 @@
       <c r="B351" s="7">
         <v>36210</v>
       </c>
-      <c r="C351" s="8">
+      <c r="C351" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D351" s="8" t="s">
@@ -7548,7 +7558,7 @@
       <c r="B352" s="7">
         <v>36237</v>
       </c>
-      <c r="C352" s="8">
+      <c r="C352" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D352" s="8" t="s">
@@ -7568,7 +7578,7 @@
       <c r="B353" s="7">
         <v>36263</v>
       </c>
-      <c r="C353" s="8">
+      <c r="C353" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D353" s="8" t="s">
@@ -7588,7 +7598,7 @@
       <c r="B354" s="7">
         <v>36294</v>
       </c>
-      <c r="C354" s="8">
+      <c r="C354" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D354" s="8" t="s">
@@ -7608,7 +7618,7 @@
       <c r="B355" s="7">
         <v>36327</v>
       </c>
-      <c r="C355" s="8">
+      <c r="C355" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D355" s="8" t="s">
@@ -7628,7 +7638,7 @@
       <c r="B356" s="7">
         <v>36356</v>
       </c>
-      <c r="C356" s="8">
+      <c r="C356" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D356" s="8" t="s">
@@ -7648,7 +7658,7 @@
       <c r="B357" s="7">
         <v>36389</v>
       </c>
-      <c r="C357" s="8">
+      <c r="C357" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D357" s="8" t="s">
@@ -7668,7 +7678,7 @@
       <c r="B358" s="7">
         <v>36418</v>
       </c>
-      <c r="C358" s="8">
+      <c r="C358" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D358" s="8" t="s">
@@ -7688,7 +7698,7 @@
       <c r="B359" s="7">
         <v>36452</v>
       </c>
-      <c r="C359" s="8">
+      <c r="C359" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D359" s="8" t="s">
@@ -7708,7 +7718,7 @@
       <c r="B360" s="7">
         <v>36481</v>
       </c>
-      <c r="C360" s="8">
+      <c r="C360" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D360" s="8" t="s">
@@ -7728,7 +7738,7 @@
       <c r="B361" s="7">
         <v>36508</v>
       </c>
-      <c r="C361" s="8">
+      <c r="C361" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D361" s="8" t="s">
@@ -7748,7 +7758,7 @@
       <c r="B362" s="7">
         <v>36539</v>
       </c>
-      <c r="C362" s="8">
+      <c r="C362" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D362" s="8" t="s">
@@ -7768,7 +7778,7 @@
       <c r="B363" s="7">
         <v>36574</v>
       </c>
-      <c r="C363" s="8">
+      <c r="C363" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D363" s="8" t="s">
@@ -7788,7 +7798,7 @@
       <c r="B364" s="7">
         <v>36602</v>
       </c>
-      <c r="C364" s="8">
+      <c r="C364" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D364" s="8" t="s">
@@ -7808,7 +7818,7 @@
       <c r="B365" s="7">
         <v>36630</v>
       </c>
-      <c r="C365" s="8">
+      <c r="C365" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D365" s="8" t="s">
@@ -7828,7 +7838,7 @@
       <c r="B366" s="7">
         <v>36662</v>
       </c>
-      <c r="C366" s="8">
+      <c r="C366" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D366" s="8" t="s">
@@ -7848,7 +7858,7 @@
       <c r="B367" s="7">
         <v>36691</v>
       </c>
-      <c r="C367" s="8">
+      <c r="C367" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D367" s="8" t="s">
@@ -7868,7 +7878,7 @@
       <c r="B368" s="7">
         <v>36725</v>
       </c>
-      <c r="C368" s="8">
+      <c r="C368" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D368" s="8" t="s">
@@ -7888,7 +7898,7 @@
       <c r="B369" s="7">
         <v>36754</v>
       </c>
-      <c r="C369" s="8">
+      <c r="C369" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D369" s="8" t="s">
@@ -7908,7 +7918,7 @@
       <c r="B370" s="7">
         <v>36784</v>
       </c>
-      <c r="C370" s="8">
+      <c r="C370" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D370" s="8" t="s">
@@ -7928,7 +7938,7 @@
       <c r="B371" s="7">
         <v>36817</v>
       </c>
-      <c r="C371" s="8">
+      <c r="C371" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D371" s="8" t="s">
@@ -7948,7 +7958,7 @@
       <c r="B372" s="7">
         <v>36846</v>
       </c>
-      <c r="C372" s="8">
+      <c r="C372" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D372" s="8" t="s">
@@ -7968,7 +7978,7 @@
       <c r="B373" s="7">
         <v>36875</v>
       </c>
-      <c r="C373" s="8">
+      <c r="C373" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D373" s="8" t="s">
@@ -7988,7 +7998,7 @@
       <c r="B374" s="7">
         <v>36908</v>
       </c>
-      <c r="C374" s="8">
+      <c r="C374" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D374" s="8" t="s">
@@ -8008,7 +8018,7 @@
       <c r="B375" s="7">
         <v>36943</v>
       </c>
-      <c r="C375" s="8">
+      <c r="C375" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D375" s="8" t="s">
@@ -8028,7 +8038,7 @@
       <c r="B376" s="7">
         <v>36971</v>
       </c>
-      <c r="C376" s="8">
+      <c r="C376" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D376" s="8" t="s">
@@ -8048,7 +8058,7 @@
       <c r="B377" s="7">
         <v>36998</v>
       </c>
-      <c r="C377" s="8">
+      <c r="C377" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D377" s="8" t="s">
@@ -8068,7 +8078,7 @@
       <c r="B378" s="7">
         <v>37027</v>
       </c>
-      <c r="C378" s="8">
+      <c r="C378" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D378" s="8" t="s">
@@ -8088,7 +8098,7 @@
       <c r="B379" s="7">
         <v>37057</v>
       </c>
-      <c r="C379" s="8">
+      <c r="C379" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D379" s="8" t="s">
@@ -8108,7 +8118,7 @@
       <c r="B380" s="7">
         <v>37090</v>
       </c>
-      <c r="C380" s="8">
+      <c r="C380" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D380" s="8" t="s">
@@ -8128,7 +8138,7 @@
       <c r="B381" s="7">
         <v>37119</v>
       </c>
-      <c r="C381" s="8">
+      <c r="C381" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D381" s="8" t="s">
@@ -8148,7 +8158,7 @@
       <c r="B382" s="7">
         <v>37152</v>
       </c>
-      <c r="C382" s="8">
+      <c r="C382" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D382" s="8" t="s">
@@ -8168,7 +8178,7 @@
       <c r="B383" s="7">
         <v>37183</v>
       </c>
-      <c r="C383" s="8">
+      <c r="C383" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D383" s="8" t="s">
@@ -8188,7 +8198,7 @@
       <c r="B384" s="7">
         <v>37211</v>
       </c>
-      <c r="C384" s="8">
+      <c r="C384" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D384" s="8" t="s">
@@ -8208,7 +8218,7 @@
       <c r="B385" s="7">
         <v>37239</v>
       </c>
-      <c r="C385" s="8">
+      <c r="C385" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D385" s="8" t="s">
@@ -8228,7 +8238,7 @@
       <c r="B386" s="7">
         <v>37272</v>
       </c>
-      <c r="C386" s="8">
+      <c r="C386" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D386" s="8" t="s">
@@ -8248,7 +8258,7 @@
       <c r="B387" s="7">
         <v>37307</v>
       </c>
-      <c r="C387" s="8">
+      <c r="C387" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D387" s="8" t="s">
@@ -8268,7 +8278,7 @@
       <c r="B388" s="7">
         <v>37336</v>
       </c>
-      <c r="C388" s="8">
+      <c r="C388" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D388" s="8" t="s">
@@ -8288,7 +8298,7 @@
       <c r="B389" s="7">
         <v>37362</v>
       </c>
-      <c r="C389" s="8">
+      <c r="C389" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D389" s="8" t="s">
@@ -8308,7 +8318,7 @@
       <c r="B390" s="7">
         <v>37391</v>
       </c>
-      <c r="C390" s="8">
+      <c r="C390" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D390" s="8" t="s">
@@ -8328,7 +8338,7 @@
       <c r="B391" s="7">
         <v>37425</v>
       </c>
-      <c r="C391" s="8">
+      <c r="C391" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D391" s="8" t="s">
@@ -8348,7 +8358,7 @@
       <c r="B392" s="7">
         <v>37456</v>
       </c>
-      <c r="C392" s="8">
+      <c r="C392" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D392" s="8" t="s">
@@ -8368,7 +8378,7 @@
       <c r="B393" s="7">
         <v>37484</v>
       </c>
-      <c r="C393" s="8">
+      <c r="C393" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D393" s="8" t="s">
@@ -8388,7 +8398,7 @@
       <c r="B394" s="7">
         <v>37517</v>
       </c>
-      <c r="C394" s="8">
+      <c r="C394" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D394" s="8" t="s">
@@ -8408,7 +8418,7 @@
       <c r="B395" s="7">
         <v>37547</v>
       </c>
-      <c r="C395" s="8">
+      <c r="C395" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D395" s="8" t="s">
@@ -8428,7 +8438,7 @@
       <c r="B396" s="7">
         <v>37579</v>
       </c>
-      <c r="C396" s="8">
+      <c r="C396" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D396" s="8" t="s">
@@ -8448,7 +8458,7 @@
       <c r="B397" s="7">
         <v>37607</v>
       </c>
-      <c r="C397" s="8">
+      <c r="C397" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D397" s="8" t="s">
@@ -8468,7 +8478,7 @@
       <c r="B398" s="7">
         <v>37637</v>
       </c>
-      <c r="C398" s="8">
+      <c r="C398" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D398" s="8" t="s">
@@ -8488,7 +8498,7 @@
       <c r="B399" s="7">
         <v>37673</v>
       </c>
-      <c r="C399" s="8">
+      <c r="C399" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D399" s="8" t="s">
@@ -8508,7 +8518,7 @@
       <c r="B400" s="7">
         <v>37701</v>
       </c>
-      <c r="C400" s="8">
+      <c r="C400" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D400" s="8" t="s">
@@ -8528,7 +8538,7 @@
       <c r="B401" s="7">
         <v>37727</v>
       </c>
-      <c r="C401" s="8">
+      <c r="C401" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D401" s="8" t="s">
@@ -8548,7 +8558,7 @@
       <c r="B402" s="7">
         <v>37757</v>
       </c>
-      <c r="C402" s="8">
+      <c r="C402" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D402" s="8" t="s">
@@ -8568,7 +8578,7 @@
       <c r="B403" s="7">
         <v>37789</v>
       </c>
-      <c r="C403" s="8">
+      <c r="C403" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D403" s="8" t="s">
@@ -8588,7 +8598,7 @@
       <c r="B404" s="7">
         <v>37818</v>
       </c>
-      <c r="C404" s="8">
+      <c r="C404" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D404" s="8" t="s">
@@ -8608,7 +8618,7 @@
       <c r="B405" s="7">
         <v>37848</v>
       </c>
-      <c r="C405" s="8">
+      <c r="C405" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D405" s="8" t="s">
@@ -8628,7 +8638,7 @@
       <c r="B406" s="7">
         <v>37880</v>
       </c>
-      <c r="C406" s="8">
+      <c r="C406" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D406" s="8" t="s">
@@ -8648,7 +8658,7 @@
       <c r="B407" s="7">
         <v>37910</v>
       </c>
-      <c r="C407" s="8">
+      <c r="C407" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D407" s="8" t="s">
@@ -8668,7 +8678,7 @@
       <c r="B408" s="7">
         <v>37943</v>
       </c>
-      <c r="C408" s="8">
+      <c r="C408" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D408" s="8" t="s">
@@ -8688,7 +8698,7 @@
       <c r="B409" s="7">
         <v>37971</v>
       </c>
-      <c r="C409" s="8">
+      <c r="C409" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D409" s="8" t="s">
@@ -8708,7 +8718,7 @@
       <c r="B410" s="7">
         <v>38001</v>
       </c>
-      <c r="C410" s="8">
+      <c r="C410" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D410" s="8" t="s">
@@ -8728,7 +8738,7 @@
       <c r="B411" s="7">
         <v>38037</v>
       </c>
-      <c r="C411" s="8">
+      <c r="C411" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D411" s="8" t="s">
@@ -8748,7 +8758,7 @@
       <c r="B412" s="7">
         <v>38063</v>
       </c>
-      <c r="C412" s="8">
+      <c r="C412" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D412" s="8" t="s">
@@ -8768,7 +8778,7 @@
       <c r="B413" s="7">
         <v>38091</v>
       </c>
-      <c r="C413" s="8">
+      <c r="C413" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D413" s="8" t="s">
@@ -8788,7 +8798,7 @@
       <c r="B414" s="10">
         <v>38121</v>
       </c>
-      <c r="C414" s="8">
+      <c r="C414" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D414" s="8" t="s">
@@ -8808,7 +8818,7 @@
       <c r="B415" s="7">
         <v>38153</v>
       </c>
-      <c r="C415" s="8">
+      <c r="C415" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D415" s="8" t="s">
@@ -8828,7 +8838,7 @@
       <c r="B416" s="7">
         <v>38184</v>
       </c>
-      <c r="C416" s="8">
+      <c r="C416" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D416" s="8" t="s">
@@ -8848,7 +8858,7 @@
       <c r="B417" s="7">
         <v>38216</v>
       </c>
-      <c r="C417" s="8">
+      <c r="C417" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D417" s="8" t="s">
@@ -8868,7 +8878,7 @@
       <c r="B418" s="7">
         <v>38246</v>
       </c>
-      <c r="C418" s="8">
+      <c r="C418" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D418" s="8" t="s">
@@ -8888,7 +8898,7 @@
       <c r="B419" s="7">
         <v>38279</v>
       </c>
-      <c r="C419" s="8">
+      <c r="C419" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D419" s="8" t="s">
@@ -8908,7 +8918,7 @@
       <c r="B420" s="7">
         <v>38308</v>
       </c>
-      <c r="C420" s="8">
+      <c r="C420" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D420" s="8" t="s">
@@ -8928,7 +8938,7 @@
       <c r="B421" s="7">
         <v>38338</v>
       </c>
-      <c r="C421" s="8">
+      <c r="C421" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D421" s="8" t="s">
@@ -8948,7 +8958,7 @@
       <c r="B422" s="7">
         <v>38371</v>
       </c>
-      <c r="C422" s="8">
+      <c r="C422" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D422" s="8" t="s">
@@ -8968,7 +8978,7 @@
       <c r="B423" s="7">
         <v>38406</v>
       </c>
-      <c r="C423" s="8">
+      <c r="C423" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D423" s="8" t="s">
@@ -8988,7 +8998,7 @@
       <c r="B424" s="7">
         <v>38434</v>
       </c>
-      <c r="C424" s="8">
+      <c r="C424" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D424" s="8" t="s">
@@ -9008,7 +9018,7 @@
       <c r="B425" s="7">
         <v>38462</v>
       </c>
-      <c r="C425" s="8">
+      <c r="C425" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D425" s="8" t="s">
@@ -9028,7 +9038,7 @@
       <c r="B426" s="7">
         <v>38490</v>
       </c>
-      <c r="C426" s="8">
+      <c r="C426" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D426" s="8" t="s">
@@ -9048,7 +9058,7 @@
       <c r="B427" s="7">
         <v>38518</v>
       </c>
-      <c r="C427" s="8">
+      <c r="C427" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D427" s="8" t="s">
@@ -9068,7 +9078,7 @@
       <c r="B428" s="7">
         <v>38547</v>
       </c>
-      <c r="C428" s="8">
+      <c r="C428" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D428" s="8" t="s">
@@ -9088,7 +9098,7 @@
       <c r="B429" s="7">
         <v>38580</v>
       </c>
-      <c r="C429" s="8">
+      <c r="C429" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D429" s="8" t="s">
@@ -9108,7 +9118,7 @@
       <c r="B430" s="7">
         <v>38610</v>
       </c>
-      <c r="C430" s="8">
+      <c r="C430" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D430" s="8" t="s">
@@ -9128,7 +9138,7 @@
       <c r="B431" s="7">
         <v>38639</v>
       </c>
-      <c r="C431" s="8">
+      <c r="C431" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D431" s="8" t="s">
@@ -9148,7 +9158,7 @@
       <c r="B432" s="7">
         <v>38672</v>
       </c>
-      <c r="C432" s="8">
+      <c r="C432" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D432" s="8" t="s">
@@ -9168,7 +9178,7 @@
       <c r="B433" s="7">
         <v>38701</v>
       </c>
-      <c r="C433" s="8">
+      <c r="C433" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D433" s="8" t="s">
@@ -9188,7 +9198,7 @@
       <c r="B434" s="7">
         <v>38735</v>
       </c>
-      <c r="C434" s="8">
+      <c r="C434" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D434" s="8" t="s">
@@ -9208,7 +9218,7 @@
       <c r="B435" s="7">
         <v>38770</v>
       </c>
-      <c r="C435" s="8">
+      <c r="C435" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D435" s="8" t="s">
@@ -9228,7 +9238,7 @@
       <c r="B436" s="7">
         <v>38792</v>
       </c>
-      <c r="C436" s="8">
+      <c r="C436" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D436" s="8" t="s">
@@ -9248,7 +9258,7 @@
       <c r="B437" s="7">
         <v>38826</v>
       </c>
-      <c r="C437" s="8">
+      <c r="C437" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D437" s="8" t="s">
@@ -9268,7 +9278,7 @@
       <c r="B438" s="7">
         <v>38854</v>
       </c>
-      <c r="C438" s="8">
+      <c r="C438" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D438" s="8" t="s">
@@ -9288,7 +9298,7 @@
       <c r="B439" s="7">
         <v>38882</v>
       </c>
-      <c r="C439" s="8">
+      <c r="C439" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D439" s="8" t="s">
@@ -9308,7 +9318,7 @@
       <c r="B440" s="7">
         <v>38917</v>
       </c>
-      <c r="C440" s="8">
+      <c r="C440" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D440" s="8" t="s">
@@ -9328,7 +9338,7 @@
       <c r="B441" s="7">
         <v>38945</v>
       </c>
-      <c r="C441" s="8">
+      <c r="C441" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D441" s="8" t="s">
@@ -9348,7 +9358,7 @@
       <c r="B442" s="7">
         <v>38975</v>
       </c>
-      <c r="C442" s="8">
+      <c r="C442" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D442" s="8" t="s">
@@ -9368,7 +9378,7 @@
       <c r="B443" s="7">
         <v>39008</v>
       </c>
-      <c r="C443" s="8">
+      <c r="C443" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D443" s="8" t="s">
@@ -9388,7 +9398,7 @@
       <c r="B444" s="7">
         <v>39037</v>
       </c>
-      <c r="C444" s="8">
+      <c r="C444" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D444" s="8" t="s">
@@ -9408,7 +9418,7 @@
       <c r="B445" s="7">
         <v>39066</v>
       </c>
-      <c r="C445" s="8">
+      <c r="C445" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D445" s="8" t="s">
@@ -9428,7 +9438,7 @@
       <c r="B446" s="7">
         <v>39100</v>
       </c>
-      <c r="C446" s="8">
+      <c r="C446" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D446" s="8" t="s">
@@ -9448,7 +9458,7 @@
       <c r="B447" s="7">
         <v>39134</v>
       </c>
-      <c r="C447" s="8">
+      <c r="C447" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D447" s="8" t="s">
@@ -9468,7 +9478,7 @@
       <c r="B448" s="7">
         <v>39157</v>
       </c>
-      <c r="C448" s="8">
+      <c r="C448" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D448" s="8" t="s">
@@ -9488,7 +9498,7 @@
       <c r="B449" s="7">
         <v>39189</v>
       </c>
-      <c r="C449" s="8">
+      <c r="C449" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D449" s="8" t="s">
@@ -9508,7 +9518,7 @@
       <c r="B450" s="7">
         <v>39217</v>
       </c>
-      <c r="C450" s="8">
+      <c r="C450" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D450" s="8" t="s">
@@ -9528,7 +9538,7 @@
       <c r="B451" s="7">
         <v>39248</v>
       </c>
-      <c r="C451" s="8">
+      <c r="C451" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D451" s="8" t="s">
@@ -9548,7 +9558,7 @@
       <c r="B452" s="7">
         <v>39281</v>
       </c>
-      <c r="C452" s="8">
+      <c r="C452" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D452" s="8" t="s">
@@ -9568,7 +9578,7 @@
       <c r="B453" s="7">
         <v>39309</v>
       </c>
-      <c r="C453" s="8">
+      <c r="C453" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D453" s="8" t="s">
@@ -9588,7 +9598,7 @@
       <c r="B454" s="7">
         <v>39344</v>
       </c>
-      <c r="C454" s="8">
+      <c r="C454" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D454" s="8" t="s">
@@ -9608,7 +9618,7 @@
       <c r="B455" s="7">
         <v>39372</v>
       </c>
-      <c r="C455" s="8">
+      <c r="C455" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D455" s="8" t="s">
@@ -9628,7 +9638,7 @@
       <c r="B456" s="7">
         <v>39401</v>
       </c>
-      <c r="C456" s="8">
+      <c r="C456" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D456" s="8" t="s">
@@ -9648,7 +9658,7 @@
       <c r="B457" s="7">
         <v>39430</v>
       </c>
-      <c r="C457" s="8">
+      <c r="C457" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D457" s="8" t="s">
@@ -9668,7 +9678,7 @@
       <c r="B458" s="7">
         <v>39463</v>
       </c>
-      <c r="C458" s="8">
+      <c r="C458" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D458" s="8" t="s">
@@ -9688,7 +9698,7 @@
       <c r="B459" s="7">
         <v>39498</v>
       </c>
-      <c r="C459" s="8">
+      <c r="C459" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D459" s="8" t="s">
@@ -9708,7 +9718,7 @@
       <c r="B460" s="7">
         <v>39521</v>
       </c>
-      <c r="C460" s="8">
+      <c r="C460" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D460" s="8" t="s">
@@ -9728,7 +9738,7 @@
       <c r="B461" s="7">
         <v>39554</v>
       </c>
-      <c r="C461" s="8">
+      <c r="C461" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D461" s="8" t="s">
@@ -9748,7 +9758,7 @@
       <c r="B462" s="7">
         <v>39582</v>
       </c>
-      <c r="C462" s="8">
+      <c r="C462" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D462" s="8" t="s">
@@ -9768,7 +9778,7 @@
       <c r="B463" s="7">
         <v>39612</v>
       </c>
-      <c r="C463" s="8">
+      <c r="C463" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D463" s="8" t="s">
@@ -9788,7 +9798,7 @@
       <c r="B464" s="7">
         <v>39645</v>
       </c>
-      <c r="C464" s="8">
+      <c r="C464" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D464" s="8" t="s">
@@ -9808,7 +9818,7 @@
       <c r="B465" s="7">
         <v>39674</v>
       </c>
-      <c r="C465" s="8">
+      <c r="C465" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D465" s="8" t="s">
@@ -9828,7 +9838,7 @@
       <c r="B466" s="7">
         <v>39707</v>
       </c>
-      <c r="C466" s="8">
+      <c r="C466" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D466" s="8" t="s">
@@ -9848,7 +9858,7 @@
       <c r="B467" s="7">
         <v>39737</v>
       </c>
-      <c r="C467" s="8">
+      <c r="C467" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D467" s="8" t="s">
@@ -9868,7 +9878,7 @@
       <c r="B468" s="7">
         <v>39771</v>
       </c>
-      <c r="C468" s="8">
+      <c r="C468" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D468" s="8" t="s">
@@ -9888,7 +9898,7 @@
       <c r="B469" s="7">
         <v>39798</v>
       </c>
-      <c r="C469" s="8">
+      <c r="C469" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D469" s="8" t="s">
@@ -9908,7 +9918,7 @@
       <c r="B470" s="7">
         <v>39829</v>
       </c>
-      <c r="C470" s="8">
+      <c r="C470" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D470" s="8" t="s">
@@ -9928,7 +9938,7 @@
       <c r="B471" s="7">
         <v>39864</v>
       </c>
-      <c r="C471" s="8">
+      <c r="C471" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D471" s="8" t="s">
@@ -9948,7 +9958,7 @@
       <c r="B472" s="7">
         <v>39890</v>
       </c>
-      <c r="C472" s="8">
+      <c r="C472" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D472" s="8" t="s">
@@ -9968,7 +9978,7 @@
       <c r="B473" s="7">
         <v>39918</v>
       </c>
-      <c r="C473" s="8">
+      <c r="C473" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D473" s="8" t="s">
@@ -9988,7 +9998,7 @@
       <c r="B474" s="7">
         <v>39948</v>
       </c>
-      <c r="C474" s="8">
+      <c r="C474" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D474" s="8" t="s">
@@ -10008,7 +10018,7 @@
       <c r="B475" s="7">
         <v>39981</v>
       </c>
-      <c r="C475" s="8">
+      <c r="C475" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D475" s="8" t="s">
@@ -10028,7 +10038,7 @@
       <c r="B476" s="7">
         <v>40009</v>
       </c>
-      <c r="C476" s="8">
+      <c r="C476" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D476" s="8" t="s">
@@ -10048,7 +10058,7 @@
       <c r="B477" s="7">
         <v>40039</v>
       </c>
-      <c r="C477" s="8">
+      <c r="C477" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D477" s="8" t="s">
@@ -10068,7 +10078,7 @@
       <c r="B478" s="7">
         <v>40072</v>
       </c>
-      <c r="C478" s="8">
+      <c r="C478" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D478" s="8" t="s">
@@ -10088,7 +10098,7 @@
       <c r="B479" s="7">
         <v>40101</v>
       </c>
-      <c r="C479" s="8">
+      <c r="C479" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D479" s="8" t="s">
@@ -10108,7 +10118,7 @@
       <c r="B480" s="7">
         <v>40135</v>
       </c>
-      <c r="C480" s="8">
+      <c r="C480" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D480" s="8" t="s">
@@ -10128,7 +10138,7 @@
       <c r="B481" s="7">
         <v>40163</v>
       </c>
-      <c r="C481" s="8">
+      <c r="C481" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D481" s="8" t="s">
@@ -10148,7 +10158,7 @@
       <c r="B482" s="7">
         <v>40193</v>
       </c>
-      <c r="C482" s="8">
+      <c r="C482" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D482" s="8" t="s">
@@ -10168,7 +10178,7 @@
       <c r="B483" s="7">
         <v>40228</v>
       </c>
-      <c r="C483" s="8">
+      <c r="C483" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D483" s="8" t="s">
@@ -10188,7 +10198,7 @@
       <c r="B484" s="7">
         <v>40255</v>
       </c>
-      <c r="C484" s="8">
+      <c r="C484" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D484" s="8" t="s">
@@ -10208,7 +10218,7 @@
       <c r="B485" s="7">
         <v>40282</v>
       </c>
-      <c r="C485" s="8">
+      <c r="C485" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D485" s="8" t="s">
@@ -10228,7 +10238,7 @@
       <c r="B486" s="7">
         <v>40317</v>
       </c>
-      <c r="C486" s="8">
+      <c r="C486" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D486" s="8" t="s">
@@ -10248,7 +10258,7 @@
       <c r="B487" s="7">
         <v>40346</v>
       </c>
-      <c r="C487" s="8">
+      <c r="C487" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D487" s="8" t="s">
@@ -10268,7 +10278,7 @@
       <c r="B488" s="7">
         <v>40375</v>
       </c>
-      <c r="C488" s="8">
+      <c r="C488" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D488" s="8" t="s">
@@ -10288,7 +10298,7 @@
       <c r="B489" s="7">
         <v>40403</v>
       </c>
-      <c r="C489" s="8">
+      <c r="C489" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D489" s="8" t="s">
@@ -10308,7 +10318,7 @@
       <c r="B490" s="7">
         <v>40438</v>
       </c>
-      <c r="C490" s="8">
+      <c r="C490" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D490" s="8" t="s">
@@ -10328,7 +10338,7 @@
       <c r="B491" s="7">
         <v>40466</v>
       </c>
-      <c r="C491" s="8">
+      <c r="C491" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D491" s="8" t="s">
@@ -10348,7 +10358,7 @@
       <c r="B492" s="7">
         <v>40499</v>
       </c>
-      <c r="C492" s="8">
+      <c r="C492" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D492" s="8" t="s">
@@ -10368,7 +10378,7 @@
       <c r="B493" s="7">
         <v>40527</v>
       </c>
-      <c r="C493" s="8">
+      <c r="C493" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D493" s="8" t="s">
@@ -10388,7 +10398,7 @@
       <c r="B494" s="7">
         <v>40557</v>
       </c>
-      <c r="C494" s="8">
+      <c r="C494" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D494" s="8" t="s">
@@ -10408,7 +10418,7 @@
       <c r="B495" s="7">
         <v>40591</v>
       </c>
-      <c r="C495" s="8">
+      <c r="C495" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D495" s="8" t="s">
@@ -10428,7 +10438,7 @@
       <c r="B496" s="7">
         <v>40619</v>
       </c>
-      <c r="C496" s="8">
+      <c r="C496" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D496" s="8" t="s">
@@ -10448,7 +10458,7 @@
       <c r="B497" s="7">
         <v>40648</v>
       </c>
-      <c r="C497" s="8">
+      <c r="C497" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D497" s="8" t="s">
@@ -10468,7 +10478,7 @@
       <c r="B498" s="7">
         <v>40676</v>
       </c>
-      <c r="C498" s="8">
+      <c r="C498" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D498" s="8" t="s">
@@ -10488,7 +10498,7 @@
       <c r="B499" s="7">
         <v>40709</v>
       </c>
-      <c r="C499" s="8">
+      <c r="C499" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D499" s="8" t="s">
@@ -10508,7 +10518,7 @@
       <c r="B500" s="7">
         <v>40739</v>
       </c>
-      <c r="C500" s="8">
+      <c r="C500" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D500" s="8" t="s">
@@ -10528,7 +10538,7 @@
       <c r="B501" s="7">
         <v>40773</v>
       </c>
-      <c r="C501" s="8">
+      <c r="C501" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D501" s="8" t="s">
@@ -10548,7 +10558,7 @@
       <c r="B502" s="7">
         <v>40801</v>
       </c>
-      <c r="C502" s="8">
+      <c r="C502" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D502" s="8" t="s">
@@ -10568,7 +10578,7 @@
       <c r="B503" s="7">
         <v>40835</v>
       </c>
-      <c r="C503" s="8">
+      <c r="C503" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D503" s="8" t="s">
@@ -10588,7 +10598,7 @@
       <c r="B504" s="7">
         <v>40863</v>
       </c>
-      <c r="C504" s="8">
+      <c r="C504" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D504" s="8" t="s">
@@ -10608,7 +10618,7 @@
       <c r="B505" s="7">
         <v>40893</v>
       </c>
-      <c r="C505" s="8">
+      <c r="C505" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D505" s="8" t="s">
@@ -10628,7 +10638,7 @@
       <c r="B506" s="7">
         <v>40927</v>
       </c>
-      <c r="C506" s="8">
+      <c r="C506" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D506" s="8" t="s">
@@ -10648,7 +10658,7 @@
       <c r="B507" s="7">
         <v>40956</v>
       </c>
-      <c r="C507" s="8">
+      <c r="C507" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D507" s="8" t="s">
@@ -10668,7 +10678,7 @@
       <c r="B508" s="7">
         <v>40984</v>
       </c>
-      <c r="C508" s="8">
+      <c r="C508" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D508" s="8" t="s">
@@ -10688,7 +10698,7 @@
       <c r="B509" s="7">
         <v>41012</v>
       </c>
-      <c r="C509" s="8">
+      <c r="C509" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D509" s="8" t="s">
@@ -10708,7 +10718,7 @@
       <c r="B510" s="11">
         <v>41044</v>
       </c>
-      <c r="C510" s="8">
+      <c r="C510" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D510" s="8" t="s">
@@ -10731,7 +10741,7 @@
       <c r="B511" s="11">
         <v>41074</v>
       </c>
-      <c r="C511" s="8">
+      <c r="C511" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D511" s="8" t="s">
@@ -10754,7 +10764,7 @@
       <c r="B512" s="11">
         <v>41107</v>
       </c>
-      <c r="C512" s="8">
+      <c r="C512" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D512" s="8" t="s">
@@ -10777,7 +10787,7 @@
       <c r="B513" s="11">
         <v>41136</v>
       </c>
-      <c r="C513" s="8">
+      <c r="C513" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D513" s="8" t="s">
@@ -10800,7 +10810,7 @@
       <c r="B514" s="11">
         <v>41166</v>
       </c>
-      <c r="C514" s="8">
+      <c r="C514" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D514" s="8" t="s">
@@ -10823,7 +10833,7 @@
       <c r="B515" s="11">
         <v>41198</v>
       </c>
-      <c r="C515" s="8">
+      <c r="C515" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D515" s="8" t="s">
@@ -10846,7 +10856,7 @@
       <c r="B516" s="11">
         <v>41228</v>
       </c>
-      <c r="C516" s="8">
+      <c r="C516" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D516" s="8" t="s">
@@ -10869,7 +10879,7 @@
       <c r="B517" s="11">
         <v>41257</v>
       </c>
-      <c r="C517" s="8">
+      <c r="C517" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D517" s="8" t="s">
@@ -10892,7 +10902,7 @@
       <c r="B518" s="11">
         <v>41290</v>
       </c>
-      <c r="C518" s="8">
+      <c r="C518" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D518" s="8" t="s">
@@ -10915,7 +10925,7 @@
       <c r="B519" s="11">
         <v>41326</v>
       </c>
-      <c r="C519" s="8">
+      <c r="C519" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D519" s="8" t="s">
@@ -10938,7 +10948,7 @@
       <c r="B520" s="11">
         <v>41348</v>
       </c>
-      <c r="C520" s="8">
+      <c r="C520" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D520" s="8" t="s">
@@ -10961,7 +10971,7 @@
       <c r="B521" s="11">
         <v>41380</v>
       </c>
-      <c r="C521" s="8">
+      <c r="C521" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D521" s="8" t="s">
@@ -10984,7 +10994,7 @@
       <c r="B522" s="11">
         <v>41410</v>
       </c>
-      <c r="C522" s="8">
+      <c r="C522" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D522" s="8" t="s">
@@ -11007,7 +11017,7 @@
       <c r="B523" s="11">
         <v>41443</v>
       </c>
-      <c r="C523" s="8">
+      <c r="C523" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D523" s="8" t="s">
@@ -11030,7 +11040,7 @@
       <c r="B524" s="11">
         <v>41471</v>
       </c>
-      <c r="C524" s="8">
+      <c r="C524" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D524" s="8" t="s">
@@ -11053,7 +11063,7 @@
       <c r="B525" s="11">
         <v>41501</v>
       </c>
-      <c r="C525" s="8">
+      <c r="C525" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D525" s="8" t="s">
@@ -11076,7 +11086,7 @@
       <c r="B526" s="11">
         <v>41534</v>
       </c>
-      <c r="C526" s="8">
+      <c r="C526" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D526" s="8" t="s">
@@ -11099,7 +11109,7 @@
       <c r="B527" s="11">
         <v>41577</v>
       </c>
-      <c r="C527" s="8">
+      <c r="C527" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D527" s="8" t="s">
@@ -11122,7 +11132,7 @@
       <c r="B528" s="11">
         <v>41598</v>
       </c>
-      <c r="C528" s="8">
+      <c r="C528" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D528" s="8" t="s">
@@ -11145,7 +11155,7 @@
       <c r="B529" s="11">
         <v>41625</v>
       </c>
-      <c r="C529" s="8">
+      <c r="C529" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D529" s="8" t="s">
@@ -11168,7 +11178,7 @@
       <c r="B530" s="11">
         <v>41655</v>
       </c>
-      <c r="C530" s="8">
+      <c r="C530" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D530" s="8" t="s">
@@ -11191,7 +11201,7 @@
       <c r="B531" s="11">
         <v>41690</v>
       </c>
-      <c r="C531" s="8">
+      <c r="C531" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D531" s="8" t="s">
@@ -11214,7 +11224,7 @@
       <c r="B532" s="11">
         <v>41716</v>
       </c>
-      <c r="C532" s="8">
+      <c r="C532" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D532" s="8" t="s">
@@ -11237,7 +11247,7 @@
       <c r="B533" s="11">
         <v>41744</v>
       </c>
-      <c r="C533" s="8">
+      <c r="C533" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D533" s="8" t="s">
@@ -11260,7 +11270,7 @@
       <c r="B534" s="11">
         <v>41774</v>
       </c>
-      <c r="C534" s="8">
+      <c r="C534" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D534" s="8" t="s">
@@ -11283,7 +11293,7 @@
       <c r="B535" s="11">
         <v>41807</v>
       </c>
-      <c r="C535" s="8">
+      <c r="C535" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D535" s="8" t="s">
@@ -11306,7 +11316,7 @@
       <c r="B536" s="11">
         <v>41842</v>
       </c>
-      <c r="C536" s="8">
+      <c r="C536" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D536" s="8" t="s">
@@ -11329,7 +11339,7 @@
       <c r="B537" s="11">
         <v>41870</v>
       </c>
-      <c r="C537" s="8">
+      <c r="C537" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D537" s="8" t="s">
@@ -11352,7 +11362,7 @@
       <c r="B538" s="7">
         <v>41899</v>
       </c>
-      <c r="C538" s="8">
+      <c r="C538" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D538" s="8" t="s">
@@ -11375,7 +11385,7 @@
       <c r="B539" s="7">
         <v>41934</v>
       </c>
-      <c r="C539" s="8">
+      <c r="C539" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D539" s="8" t="s">
@@ -11398,7 +11408,7 @@
       <c r="B540" s="7">
         <v>41963</v>
       </c>
-      <c r="C540" s="8">
+      <c r="C540" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D540" s="8" t="s">
@@ -11421,7 +11431,7 @@
       <c r="B541" s="7">
         <v>41990</v>
       </c>
-      <c r="C541" s="8">
+      <c r="C541" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D541" s="8" t="s">
@@ -11444,7 +11454,7 @@
       <c r="B542" s="7">
         <v>42020</v>
       </c>
-      <c r="C542" s="8">
+      <c r="C542" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D542" s="8" t="s">
@@ -11467,7 +11477,7 @@
       <c r="B543" s="7">
         <v>42061</v>
       </c>
-      <c r="C543" s="8">
+      <c r="C543" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D543" s="8" t="s">
@@ -11490,7 +11500,7 @@
       <c r="B544" s="7">
         <v>42087</v>
       </c>
-      <c r="C544" s="8">
+      <c r="C544" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D544" s="8" t="s">
@@ -11513,7 +11523,7 @@
       <c r="B545" s="7">
         <v>42111</v>
       </c>
-      <c r="C545" s="8">
+      <c r="C545" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D545" s="8" t="s">
@@ -11536,7 +11546,7 @@
       <c r="B546" s="7">
         <v>42146</v>
       </c>
-      <c r="C546" s="8">
+      <c r="C546" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D546" s="8" t="s">
@@ -11559,7 +11569,7 @@
       <c r="B547" s="7">
         <v>42173</v>
       </c>
-      <c r="C547" s="8">
+      <c r="C547" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D547" s="8" t="s">
@@ -11582,7 +11592,7 @@
       <c r="B548" s="7">
         <v>42202</v>
       </c>
-      <c r="C548" s="8">
+      <c r="C548" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D548" s="8" t="s">
@@ -11605,7 +11615,7 @@
       <c r="B549" s="7">
         <v>42235</v>
       </c>
-      <c r="C549" s="8">
+      <c r="C549" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D549" s="8" t="s">
@@ -11628,7 +11638,7 @@
       <c r="B550" s="7">
         <v>42263</v>
       </c>
-      <c r="C550" s="8">
+      <c r="C550" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D550" s="8" t="s">
@@ -11651,7 +11661,7 @@
       <c r="B551" s="7">
         <v>42292</v>
       </c>
-      <c r="C551" s="8">
+      <c r="C551" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D551" s="8" t="s">
@@ -11674,7 +11684,7 @@
       <c r="B552" s="7">
         <v>42325</v>
       </c>
-      <c r="C552" s="8">
+      <c r="C552" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D552" s="8" t="s">
@@ -11697,7 +11707,7 @@
       <c r="B553" s="7">
         <v>42353</v>
       </c>
-      <c r="C553" s="8">
+      <c r="C553" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D553" s="8" t="s">
@@ -11720,7 +11730,7 @@
       <c r="B554" s="7">
         <v>42389</v>
       </c>
-      <c r="C554" s="8">
+      <c r="C554" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D554" s="8" t="s">
@@ -11743,7 +11753,7 @@
       <c r="B555" s="7">
         <v>42419</v>
       </c>
-      <c r="C555" s="8">
+      <c r="C555" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D555" s="8" t="s">
@@ -11766,7 +11776,7 @@
       <c r="B556" s="7">
         <v>42445</v>
       </c>
-      <c r="C556" s="8">
+      <c r="C556" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D556" s="8" t="s">
@@ -11789,7 +11799,7 @@
       <c r="B557" s="7">
         <v>42474</v>
       </c>
-      <c r="C557" s="8">
+      <c r="C557" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D557" s="8" t="s">
@@ -11812,7 +11822,7 @@
       <c r="B558" s="7">
         <v>42507</v>
       </c>
-      <c r="C558" s="8">
+      <c r="C558" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D558" s="8" t="s">
@@ -11835,7 +11845,7 @@
       <c r="B559" s="7">
         <v>42537</v>
       </c>
-      <c r="C559" s="8">
+      <c r="C559" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D559" s="8" t="s">
@@ -11858,7 +11868,7 @@
       <c r="B560" s="7">
         <v>42566</v>
       </c>
-      <c r="C560" s="8">
+      <c r="C560" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D560" s="8" t="s">
@@ -11881,7 +11891,7 @@
       <c r="B561" s="7">
         <v>42598</v>
       </c>
-      <c r="C561" s="8">
+      <c r="C561" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D561" s="8" t="s">
@@ -11904,7 +11914,7 @@
       <c r="B562" s="7">
         <v>42629</v>
       </c>
-      <c r="C562" s="8">
+      <c r="C562" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D562" s="8" t="s">
@@ -11927,7 +11937,7 @@
       <c r="B563" s="7">
         <v>42661</v>
       </c>
-      <c r="C563" s="8">
+      <c r="C563" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D563" s="8" t="s">
@@ -11950,7 +11960,7 @@
       <c r="B564" s="7">
         <v>42691</v>
       </c>
-      <c r="C564" s="8">
+      <c r="C564" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D564" s="8" t="s">
@@ -11973,7 +11983,7 @@
       <c r="B565" s="7">
         <v>42719</v>
       </c>
-      <c r="C565" s="8">
+      <c r="C565" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D565" s="8" t="s">
@@ -11996,7 +12006,7 @@
       <c r="B566" s="7">
         <v>42753</v>
       </c>
-      <c r="C566" s="8">
+      <c r="C566" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D566" s="8" t="s">
@@ -12019,7 +12029,7 @@
       <c r="B567" s="7">
         <v>42781</v>
       </c>
-      <c r="C567" s="8">
+      <c r="C567" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D567" s="8" t="s">
@@ -12042,7 +12052,7 @@
       <c r="B568" s="7">
         <v>42809</v>
       </c>
-      <c r="C568" s="8">
+      <c r="C568" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D568" s="8" t="s">
@@ -12065,7 +12075,7 @@
       <c r="B569" s="7">
         <v>42839</v>
       </c>
-      <c r="C569" s="8">
+      <c r="C569" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D569" s="8" t="s">
@@ -12088,7 +12098,7 @@
       <c r="B570" s="7">
         <v>42867</v>
       </c>
-      <c r="C570" s="8">
+      <c r="C570" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D570" s="8" t="s">
@@ -12111,7 +12121,7 @@
       <c r="B571" s="7">
         <v>42900</v>
       </c>
-      <c r="C571" s="8">
+      <c r="C571" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D571" s="8" t="s">
@@ -12134,7 +12144,7 @@
       <c r="B572" s="7">
         <v>42930</v>
       </c>
-      <c r="C572" s="8">
+      <c r="C572" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D572" s="8" t="s">
@@ -12157,7 +12167,7 @@
       <c r="B573" s="7">
         <v>42958</v>
       </c>
-      <c r="C573" s="8">
+      <c r="C573" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D573" s="8" t="s">
@@ -12180,7 +12190,7 @@
       <c r="B574" s="7">
         <v>42992</v>
       </c>
-      <c r="C574" s="8">
+      <c r="C574" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D574" s="8" t="s">
@@ -12203,7 +12213,7 @@
       <c r="B575" s="7">
         <v>43021</v>
       </c>
-      <c r="C575" s="8">
+      <c r="C575" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D575" s="8" t="s">
@@ -12226,7 +12236,7 @@
       <c r="B576" s="7">
         <v>43054</v>
       </c>
-      <c r="C576" s="8">
+      <c r="C576" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D576" s="8" t="s">
@@ -12249,7 +12259,7 @@
       <c r="B577" s="7">
         <v>43082</v>
       </c>
-      <c r="C577" s="8">
+      <c r="C577" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D577" s="8" t="s">
@@ -12272,7 +12282,7 @@
       <c r="B578" s="7">
         <v>43112</v>
       </c>
-      <c r="C578" s="8">
+      <c r="C578" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D578" s="8" t="s">
@@ -12295,7 +12305,7 @@
       <c r="B579" s="7">
         <v>43145</v>
       </c>
-      <c r="C579" s="8">
+      <c r="C579" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D579" s="8" t="s">
@@ -12318,7 +12328,7 @@
       <c r="B580" s="7">
         <v>43172</v>
       </c>
-      <c r="C580" s="8">
+      <c r="C580" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D580" s="8" t="s">
@@ -12341,7 +12351,7 @@
       <c r="B581" s="7">
         <v>43201</v>
       </c>
-      <c r="C581" s="8">
+      <c r="C581" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D581" s="8" t="s">
@@ -12364,7 +12374,7 @@
       <c r="B582" s="7">
         <v>43230</v>
       </c>
-      <c r="C582" s="8">
+      <c r="C582" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D582" s="8" t="s">
@@ -12387,7 +12397,7 @@
       <c r="B583" s="7">
         <v>43263</v>
       </c>
-      <c r="C583" s="8">
+      <c r="C583" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D583" s="8" t="s">
@@ -12410,7 +12420,7 @@
       <c r="B584" s="7">
         <v>43293</v>
       </c>
-      <c r="C584" s="8">
+      <c r="C584" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D584" s="8" t="s">
@@ -12433,7 +12443,7 @@
       <c r="B585" s="7">
         <v>43322</v>
       </c>
-      <c r="C585" s="8">
+      <c r="C585" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D585" s="8" t="s">
@@ -12456,7 +12466,7 @@
       <c r="B586" s="7">
         <v>43356</v>
       </c>
-      <c r="C586" s="8">
+      <c r="C586" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D586" s="8" t="s">
@@ -12479,7 +12489,7 @@
       <c r="B587" s="7">
         <v>43384</v>
       </c>
-      <c r="C587" s="8">
+      <c r="C587" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D587" s="8" t="s">
@@ -12502,7 +12512,7 @@
       <c r="B588" s="7">
         <v>43418</v>
       </c>
-      <c r="C588" s="8">
+      <c r="C588" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D588" s="8" t="s">
@@ -12525,7 +12535,7 @@
       <c r="B589" s="7">
         <v>43446</v>
       </c>
-      <c r="C589" s="8">
+      <c r="C589" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D589" s="8" t="s">
@@ -12548,7 +12558,7 @@
       <c r="B590" s="7">
         <v>43476</v>
       </c>
-      <c r="C590" s="8">
+      <c r="C590" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D590" s="8" t="s">
@@ -12571,7 +12581,7 @@
       <c r="B591" s="7">
         <v>43509</v>
       </c>
-      <c r="C591" s="8">
+      <c r="C591" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D591" s="8" t="s">
@@ -12594,7 +12604,7 @@
       <c r="B592" s="7">
         <v>43536</v>
       </c>
-      <c r="C592" s="8">
+      <c r="C592" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D592" s="8" t="s">
@@ -12617,7 +12627,7 @@
       <c r="B593" s="7">
         <v>43565</v>
       </c>
-      <c r="C593" s="8">
+      <c r="C593" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D593" s="8" t="s">
@@ -12640,7 +12650,7 @@
       <c r="B594" s="7">
         <v>43595</v>
       </c>
-      <c r="C594" s="8">
+      <c r="C594" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D594" s="8" t="s">
@@ -12663,7 +12673,7 @@
       <c r="B595" s="7">
         <v>43628</v>
       </c>
-      <c r="C595" s="8">
+      <c r="C595" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D595" s="8" t="s">
@@ -12686,7 +12696,7 @@
       <c r="B596" s="7">
         <v>43657</v>
       </c>
-      <c r="C596" s="8">
+      <c r="C596" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D596" s="8" t="s">
@@ -12709,7 +12719,7 @@
       <c r="B597" s="7">
         <v>43690</v>
       </c>
-      <c r="C597" s="8">
+      <c r="C597" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D597" s="8" t="s">
@@ -12732,7 +12742,7 @@
       <c r="B598" s="7">
         <v>43720</v>
       </c>
-      <c r="C598" s="8">
+      <c r="C598" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D598" s="8" t="s">
@@ -12755,7 +12765,7 @@
       <c r="B599" s="7">
         <v>43748</v>
       </c>
-      <c r="C599" s="8">
+      <c r="C599" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D599" s="8" t="s">
@@ -12778,7 +12788,7 @@
       <c r="B600" s="7">
         <v>43782</v>
       </c>
-      <c r="C600" s="8">
+      <c r="C600" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D600" s="8" t="s">
@@ -12801,7 +12811,7 @@
       <c r="B601" s="7">
         <v>43810</v>
       </c>
-      <c r="C601" s="8">
+      <c r="C601" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D601" s="8" t="s">
@@ -12824,7 +12834,7 @@
       <c r="B602" s="7">
         <v>43844</v>
       </c>
-      <c r="C602" s="8">
+      <c r="C602" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D602" s="8" t="s">
@@ -12847,7 +12857,7 @@
       <c r="B603" s="7">
         <v>43874</v>
       </c>
-      <c r="C603" s="8">
+      <c r="C603" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D603" s="8" t="s">
@@ -12870,7 +12880,7 @@
       <c r="B604" s="7">
         <v>43901</v>
       </c>
-      <c r="C604" s="8">
+      <c r="C604" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D604" s="8" t="s">
@@ -12893,7 +12903,7 @@
       <c r="B605" s="7">
         <v>43931</v>
       </c>
-      <c r="C605" s="8">
+      <c r="C605" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D605" s="8" t="s">
@@ -12916,7 +12926,7 @@
       <c r="B606" s="7">
         <v>43963</v>
       </c>
-      <c r="C606" s="8">
+      <c r="C606" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D606" s="8" t="s">
@@ -12939,7 +12949,7 @@
       <c r="B607" s="7">
         <v>43992</v>
       </c>
-      <c r="C607" s="8">
+      <c r="C607" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D607" s="8" t="s">
@@ -12962,7 +12972,7 @@
       <c r="B608" s="7">
         <v>44026</v>
       </c>
-      <c r="C608" s="8">
+      <c r="C608" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D608" s="8" t="s">
@@ -12985,7 +12995,7 @@
       <c r="B609" s="7">
         <v>44055</v>
       </c>
-      <c r="C609" s="8">
+      <c r="C609" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D609" s="8" t="s">
@@ -13008,7 +13018,7 @@
       <c r="B610" s="7">
         <v>44085</v>
       </c>
-      <c r="C610" s="8">
+      <c r="C610" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D610" s="8" t="s">
@@ -13031,7 +13041,7 @@
       <c r="B611" s="7">
         <v>44117</v>
       </c>
-      <c r="C611" s="8">
+      <c r="C611" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D611" s="8" t="s">
@@ -13054,7 +13064,7 @@
       <c r="B612" s="7">
         <v>44147</v>
       </c>
-      <c r="C612" s="8">
+      <c r="C612" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D612" s="8" t="s">
@@ -13077,7 +13087,7 @@
       <c r="B613" s="7">
         <v>44175</v>
       </c>
-      <c r="C613" s="8">
+      <c r="C613" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D613" s="8" t="s">
@@ -13100,7 +13110,7 @@
       <c r="B614" s="7">
         <v>44209</v>
       </c>
-      <c r="C614" s="8">
+      <c r="C614" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D614" s="8" t="s">
@@ -13123,7 +13133,7 @@
       <c r="B615" s="7">
         <v>44237</v>
       </c>
-      <c r="C615" s="8">
+      <c r="C615" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D615" s="8" t="s">
@@ -13146,7 +13156,7 @@
       <c r="B616" s="7">
         <v>44265</v>
       </c>
-      <c r="C616" s="8">
+      <c r="C616" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D616" s="8" t="s">
@@ -13169,7 +13179,7 @@
       <c r="B617" s="7">
         <v>44299</v>
       </c>
-      <c r="C617" s="8">
+      <c r="C617" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D617" s="8" t="s">
@@ -13192,7 +13202,7 @@
       <c r="B618" s="7">
         <v>44328</v>
       </c>
-      <c r="C618" s="8">
+      <c r="C618" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D618" s="8" t="s">
@@ -13215,7 +13225,7 @@
       <c r="B619" s="7">
         <v>44357</v>
       </c>
-      <c r="C619" s="8">
+      <c r="C619" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D619" s="8" t="s">
@@ -13238,7 +13248,7 @@
       <c r="B620" s="7">
         <v>44390</v>
       </c>
-      <c r="C620" s="8">
+      <c r="C620" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D620" s="8" t="s">
@@ -13261,7 +13271,7 @@
       <c r="B621" s="7">
         <v>44419</v>
       </c>
-      <c r="C621" s="8">
+      <c r="C621" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D621" s="8" t="s">
@@ -13284,7 +13294,7 @@
       <c r="B622" s="7">
         <v>44453</v>
       </c>
-      <c r="C622" s="8">
+      <c r="C622" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D622" s="8" t="s">
@@ -13307,7 +13317,7 @@
       <c r="B623" s="7">
         <v>44482</v>
       </c>
-      <c r="C623" s="8">
+      <c r="C623" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D623" s="8" t="s">
@@ -13330,7 +13340,7 @@
       <c r="B624" s="7">
         <v>44510</v>
       </c>
-      <c r="C624" s="8">
+      <c r="C624" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D624" s="8" t="s">
@@ -13353,7 +13363,7 @@
       <c r="B625" s="7">
         <v>44540</v>
       </c>
-      <c r="C625" s="8">
+      <c r="C625" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D625" s="8" t="s">
@@ -13376,7 +13386,7 @@
       <c r="B626" s="7">
         <v>44573</v>
       </c>
-      <c r="C626" s="8">
+      <c r="C626" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D626" s="8" t="s">
@@ -13399,7 +13409,7 @@
       <c r="B627" s="7">
         <v>44602</v>
       </c>
-      <c r="C627" s="8">
+      <c r="C627" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D627" s="8" t="s">
@@ -13422,7 +13432,7 @@
       <c r="B628" s="7">
         <v>44630</v>
       </c>
-      <c r="C628" s="8">
+      <c r="C628" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D628" s="8" t="s">
@@ -13445,7 +13455,7 @@
       <c r="B629" s="7">
         <v>44663</v>
       </c>
-      <c r="C629" s="8">
+      <c r="C629" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D629" s="8" t="s">
@@ -13468,7 +13478,7 @@
       <c r="B630" s="7">
         <v>44692</v>
       </c>
-      <c r="C630" s="8">
+      <c r="C630" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D630" s="8" t="s">
@@ -13491,7 +13501,7 @@
       <c r="B631" s="7">
         <v>44722</v>
       </c>
-      <c r="C631" s="8">
+      <c r="C631" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D631" s="8" t="s">
@@ -13514,7 +13524,7 @@
       <c r="B632" s="7">
         <v>44755</v>
       </c>
-      <c r="C632" s="8">
+      <c r="C632" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D632" s="8" t="s">
@@ -13537,7 +13547,7 @@
       <c r="B633" s="7">
         <v>44783</v>
       </c>
-      <c r="C633" s="8">
+      <c r="C633" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D633" s="8" t="s">
@@ -13560,7 +13570,7 @@
       <c r="B634" s="7">
         <v>44817</v>
       </c>
-      <c r="C634" s="8">
+      <c r="C634" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D634" s="8" t="s">
@@ -13583,7 +13593,7 @@
       <c r="B635" s="7">
         <v>44847</v>
       </c>
-      <c r="C635" s="8">
+      <c r="C635" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D635" s="8" t="s">
@@ -13606,7 +13616,7 @@
       <c r="B636" s="7">
         <v>44875</v>
       </c>
-      <c r="C636" s="8">
+      <c r="C636" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D636" s="8" t="s">
@@ -13629,7 +13639,7 @@
       <c r="B637" s="7">
         <v>44908</v>
       </c>
-      <c r="C637" s="8">
+      <c r="C637" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D637" s="8" t="s">
@@ -13652,7 +13662,7 @@
       <c r="B638" s="7">
         <v>44938</v>
       </c>
-      <c r="C638" s="8">
+      <c r="C638" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D638" s="8" t="s">
@@ -13675,7 +13685,7 @@
       <c r="B639" s="7">
         <v>44971</v>
       </c>
-      <c r="C639" s="8">
+      <c r="C639" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D639" s="8" t="s">
@@ -13698,7 +13708,7 @@
       <c r="B640" s="7">
         <v>44999</v>
       </c>
-      <c r="C640" s="8">
+      <c r="C640" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D640" s="8" t="s">
@@ -13721,7 +13731,7 @@
       <c r="B641" s="7">
         <v>45028</v>
       </c>
-      <c r="C641" s="8">
+      <c r="C641" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D641" s="8" t="s">
@@ -13744,7 +13754,7 @@
       <c r="B642" s="7">
         <v>45056</v>
       </c>
-      <c r="C642" s="8">
+      <c r="C642" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D642" s="8" t="s">
@@ -13767,7 +13777,7 @@
       <c r="B643" s="7">
         <v>45090</v>
       </c>
-      <c r="C643" s="8">
+      <c r="C643" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D643" s="8" t="s">
@@ -13790,7 +13800,7 @@
       <c r="B644" s="7">
         <v>45119</v>
       </c>
-      <c r="C644" s="8">
+      <c r="C644" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D644" s="8" t="s">
@@ -13813,7 +13823,7 @@
       <c r="B645" s="7">
         <v>45148</v>
       </c>
-      <c r="C645" s="8">
+      <c r="C645" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D645" s="8" t="s">
@@ -13836,7 +13846,7 @@
       <c r="B646" s="7">
         <v>45182</v>
       </c>
-      <c r="C646" s="8">
+      <c r="C646" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D646" s="8" t="s">
@@ -13859,7 +13869,7 @@
       <c r="B647" s="7">
         <v>45211</v>
       </c>
-      <c r="C647" s="8">
+      <c r="C647" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D647" s="8" t="s">
@@ -13882,7 +13892,7 @@
       <c r="B648" s="7">
         <v>45244</v>
       </c>
-      <c r="C648" s="8">
+      <c r="C648" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D648" s="8" t="s">
@@ -13905,7 +13915,7 @@
       <c r="B649" s="7">
         <v>45272</v>
       </c>
-      <c r="C649" s="8">
+      <c r="C649" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D649" s="8" t="s">
@@ -13928,7 +13938,7 @@
       <c r="B650" s="7">
         <v>45302</v>
       </c>
-      <c r="C650" s="8">
+      <c r="C650" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D650" s="8" t="s">
@@ -13951,7 +13961,7 @@
       <c r="B651" s="7">
         <v>45335</v>
       </c>
-      <c r="C651" s="8">
+      <c r="C651" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D651" s="8" t="s">
@@ -13974,7 +13984,7 @@
       <c r="B652" s="7">
         <v>45363</v>
       </c>
-      <c r="C652" s="8">
+      <c r="C652" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D652" s="8" t="s">
@@ -13997,7 +14007,7 @@
       <c r="B653" s="7">
         <v>45392</v>
       </c>
-      <c r="C653" s="8">
+      <c r="C653" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D653" s="8" t="s">
@@ -14020,7 +14030,7 @@
       <c r="B654" s="7">
         <v>45427</v>
       </c>
-      <c r="C654" s="8">
+      <c r="C654" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D654" s="8" t="s">
@@ -14043,7 +14053,7 @@
       <c r="B655" s="7">
         <v>45455</v>
       </c>
-      <c r="C655" s="8">
+      <c r="C655" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D655" s="8" t="s">
@@ -14066,7 +14076,7 @@
       <c r="B656" s="7">
         <v>45484</v>
       </c>
-      <c r="C656" s="8">
+      <c r="C656" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D656" s="8" t="s">
@@ -14089,7 +14099,7 @@
       <c r="B657" s="7">
         <v>45518</v>
       </c>
-      <c r="C657" s="8">
+      <c r="C657" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D657" s="8" t="s">
@@ -14112,7 +14122,7 @@
       <c r="B658" s="7">
         <v>45546</v>
       </c>
-      <c r="C658" s="8">
+      <c r="C658" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D658" s="8" t="s">
@@ -14135,7 +14145,7 @@
       <c r="B659" s="7">
         <v>45575</v>
       </c>
-      <c r="C659" s="8">
+      <c r="C659" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D659" s="8" t="s">
@@ -14158,7 +14168,7 @@
       <c r="B660" s="7">
         <v>45609</v>
       </c>
-      <c r="C660" s="8">
+      <c r="C660" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D660" s="8" t="s">
@@ -14181,7 +14191,7 @@
       <c r="B661" s="6">
         <v>45637</v>
       </c>
-      <c r="C661" s="8">
+      <c r="C661" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D661" s="8" t="s">
@@ -14204,7 +14214,7 @@
       <c r="B662" s="6">
         <v>45672</v>
       </c>
-      <c r="C662" s="8">
+      <c r="C662" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D662" s="8" t="s">
@@ -14227,7 +14237,7 @@
       <c r="B663" s="6">
         <v>45700</v>
       </c>
-      <c r="C663" s="8">
+      <c r="C663" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D663" s="8" t="s">
@@ -14250,7 +14260,7 @@
       <c r="B664" s="6">
         <v>45728</v>
       </c>
-      <c r="C664" s="8">
+      <c r="C664" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D664" s="8" t="s">
@@ -14273,7 +14283,7 @@
       <c r="B665" s="6">
         <v>45757</v>
       </c>
-      <c r="C665" s="8">
+      <c r="C665" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D665" s="8" t="s">
@@ -14296,7 +14306,7 @@
       <c r="B666" s="6">
         <v>45790</v>
       </c>
-      <c r="C666" s="8">
+      <c r="C666" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D666" s="8" t="s">
@@ -14319,7 +14329,7 @@
       <c r="B667" s="6">
         <v>45819</v>
       </c>
-      <c r="C667" s="8">
+      <c r="C667" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D667" s="8" t="s">
@@ -14342,7 +14352,7 @@
       <c r="B668" s="10">
         <v>45853</v>
       </c>
-      <c r="C668" s="8">
+      <c r="C668" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D668" s="8" t="s">
@@ -14365,7 +14375,7 @@
       <c r="B669" s="10">
         <v>45881</v>
       </c>
-      <c r="C669" s="8">
+      <c r="C669" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D669" s="8" t="s">
@@ -14388,7 +14398,7 @@
       <c r="B670" s="10">
         <v>45911</v>
       </c>
-      <c r="C670" s="8">
+      <c r="C670" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D670" s="8" t="s">
@@ -14411,7 +14421,7 @@
       <c r="B671" s="10">
         <v>45954</v>
       </c>
-      <c r="C671" s="8">
+      <c r="C671" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D671" s="8" t="s">
@@ -14434,7 +14444,7 @@
       <c r="B672" s="10">
         <v>46009</v>
       </c>
-      <c r="C672" s="8">
+      <c r="C672" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D672" s="8" t="s">
@@ -14457,7 +14467,7 @@
       <c r="B673" s="10">
         <v>46035</v>
       </c>
-      <c r="C673" s="8">
+      <c r="C673" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D673" s="8" t="s">
@@ -14480,17 +14490,37 @@
       <c r="B674" s="10">
         <v>46066</v>
       </c>
-      <c r="C674" s="8">
+      <c r="C674" s="14">
         <v>0.35416666666666669</v>
       </c>
       <c r="D674" s="8" t="s">
         <v>7</v>
+      </c>
+      <c r="E674" s="9">
+        <v>2.4E-2</v>
       </c>
       <c r="F674" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G674" s="9">
         <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A675" s="6">
+        <v>46054</v>
+      </c>
+      <c r="B675" s="10">
+        <v>46092</v>
+      </c>
+      <c r="C675" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D675" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G675" s="9">
+        <v>2.4E-2</v>
       </c>
     </row>
   </sheetData>
